--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_15_38.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_15_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1932700.754309373</v>
+        <v>1878084.718624617</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3003638.261695863</v>
+        <v>3003638.261695864</v>
       </c>
     </row>
     <row r="8">
@@ -1846,25 +1846,25 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>95.81938868650674</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>84.39771755507518</v>
       </c>
       <c r="F17" t="n">
-        <v>95.81938868650674</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>95.8193886865068</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>95.8193886865068</v>
       </c>
       <c r="I17" t="n">
-        <v>84.39771755507508</v>
+        <v>95.8193886865068</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1912,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>95.81938868650674</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1922,10 +1922,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>80.16457068406068</v>
+        <v>95.8193886865068</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>95.8193886865068</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -1934,16 +1934,16 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>32.21768637226533</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>92.59255143994206</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>44.64566712814654</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,10 +1970,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>55.4068684293746</v>
+        <v>55.40686842937455</v>
       </c>
       <c r="S18" t="n">
-        <v>95.81938868650674</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -1982,7 +1982,7 @@
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>95.81938868650674</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -2007,7 +2007,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>95.81938868650674</v>
+        <v>95.8193886865068</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>84.39771755507508</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,19 +2049,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>95.8193886865068</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>84.39771755507515</v>
       </c>
       <c r="T19" t="n">
-        <v>95.81938868650674</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>95.81938868650674</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>95.8193886865068</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2080,19 +2080,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>114.1206651911213</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>114.1206651911213</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>114.1206651911213</v>
       </c>
       <c r="E20" t="n">
-        <v>114.1206651911212</v>
+        <v>7.47693976631174</v>
       </c>
       <c r="F20" t="n">
-        <v>114.1206651911212</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2128,7 +2128,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>93.04054213402777</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -2140,13 +2140,13 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>100.5174819003395</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>114.1206651911212</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2159,7 +2159,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>109.7046078427455</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -2171,16 +2171,16 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>20.00254054425081</v>
       </c>
       <c r="G21" t="n">
-        <v>80.51494135608877</v>
+        <v>80.51494135608873</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>32.56805704429321</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2210,16 +2210,16 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>114.1206651911212</v>
+        <v>114.1206651911213</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>114.1206651911213</v>
       </c>
       <c r="U21" t="n">
-        <v>105.9712060394544</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>114.1206651911213</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -2247,22 +2247,22 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>89.60538683944726</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>88.59247221580934</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>111.1624035513369</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>105.3985967003177</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>18.78715072221981</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2283,16 +2283,16 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>29.33346744457248</v>
       </c>
       <c r="R22" t="n">
-        <v>100.5174819003395</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>114.1206651911212</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>114.1206651911212</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2307,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>114.1206651911212</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2317,13 +2317,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -2368,22 +2368,22 @@
         <v>60.4724850897346</v>
       </c>
       <c r="S23" t="n">
-        <v>119.6234367348303</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>133.6992167127163</v>
       </c>
       <c r="U23" t="n">
-        <v>32.18946381887708</v>
+        <v>161.9490200564214</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>238.3556256187198</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X23" t="n">
-        <v>241.0142888776591</v>
+        <v>99.83761592116792</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2396,16 +2396,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>77.13655079845226</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>83.31186613690066</v>
       </c>
       <c r="D24" t="n">
-        <v>51.67396967012462</v>
+        <v>58.04843271322368</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>68.24844760398587</v>
       </c>
       <c r="F24" t="n">
         <v>55.6725795419688</v>
@@ -2450,22 +2450,22 @@
         <v>82.28653825242274</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>110.7680958434065</v>
       </c>
       <c r="U24" t="n">
         <v>136.5447492295597</v>
       </c>
       <c r="V24" t="n">
-        <v>143.4039542980102</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>162.2983503095045</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
         <v>116.3763523520624</v>
       </c>
       <c r="Y24" t="n">
-        <v>116.2860629258893</v>
+        <v>76.14894410755963</v>
       </c>
     </row>
     <row r="25">
@@ -2478,7 +2478,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>13.52749612596301</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2487,16 +2487,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>56.02441517151617</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>72.8305396560245</v>
       </c>
       <c r="I25" t="n">
-        <v>66.05384207584321</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,25 +2523,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>87.89675852575441</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>134.6199651855572</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>138.5489565768664</v>
       </c>
       <c r="U25" t="n">
-        <v>196.9223965050758</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>162.7410104724129</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>197.1263654851759</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>10.29812763306409</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2560,19 +2560,19 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>199.9770210735545</v>
+      </c>
+      <c r="G26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
       <c r="H26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,22 +2605,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>119.6234367348303</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>133.6992167127163</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2636,22 +2636,22 @@
         <v>77.13655079845226</v>
       </c>
       <c r="C27" t="n">
-        <v>54.64970623771354</v>
+        <v>83.31186613690066</v>
       </c>
       <c r="D27" t="n">
-        <v>58.04843271322368</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>55.6725795419688</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>47.94688431179556</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>22.83881138508139</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>10.76120130122806</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>82.28653825242274</v>
@@ -2693,7 +2693,7 @@
         <v>136.5447492295597</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>143.4039542980102</v>
       </c>
       <c r="W27" t="n">
         <v>162.2983503095045</v>
@@ -2702,7 +2702,7 @@
         <v>116.3763523520624</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>23.20179505610026</v>
       </c>
     </row>
     <row r="28">
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>90.43534733052222</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2721,10 +2721,10 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>57.03732979515409</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>56.02441517151617</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2733,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>66.05384207584321</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,22 +2763,22 @@
         <v>87.89675852575441</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>134.6199651855572</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>196.9223965050758</v>
+        <v>99.62408170361292</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>197.1263654851759</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>65.18854714853171</v>
+        <v>136.3130225376221</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2797,67 +2797,67 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>18.11368384099118</v>
       </c>
       <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F29" t="n">
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>60.4724850897346</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>133.6992167127163</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0</v>
+      </c>
+      <c r="X29" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="G29" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0</v>
-      </c>
-      <c r="V29" t="n">
-        <v>0</v>
-      </c>
-      <c r="W29" t="n">
-        <v>0</v>
-      </c>
-      <c r="X29" t="n">
-        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>241.0142888776591</v>
@@ -2879,7 +2879,7 @@
         <v>58.04843271322368</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>68.24844760398587</v>
       </c>
       <c r="F30" t="n">
         <v>55.6725795419688</v>
@@ -2921,7 +2921,7 @@
         <v>10.76120130122806</v>
       </c>
       <c r="S30" t="n">
-        <v>82.28653825242274</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>110.7680958434065</v>
@@ -2930,13 +2930,13 @@
         <v>136.5447492295597</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>143.4039542980102</v>
       </c>
       <c r="W30" t="n">
-        <v>17.35012748442817</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>116.3763523520624</v>
+        <v>4.360616186917243</v>
       </c>
       <c r="Y30" t="n">
         <v>116.2860629258893</v>
@@ -2949,19 +2949,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>90.43534733052222</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>59.21884016679728</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>56.02441517151617</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>66.05384207584321</v>
       </c>
       <c r="J31" t="n">
         <v>3.962547265257697</v>
@@ -3000,25 +3000,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>134.6199651855572</v>
       </c>
       <c r="T31" t="n">
-        <v>138.5489565768664</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>196.9223965050758</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>197.1263654851759</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>98.06643729888657</v>
       </c>
       <c r="Y31" t="n">
-        <v>101.0091491626842</v>
+        <v>129.1880205006797</v>
       </c>
     </row>
     <row r="32">
@@ -3034,70 +3034,70 @@
         <v>241.0142888776591</v>
       </c>
       <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>216.2941500401845</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="n">
+        <v>237.0055244809166</v>
+      </c>
+      <c r="X32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y32" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="E32" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>0</v>
-      </c>
-      <c r="R32" t="n">
-        <v>37.63367370465322</v>
-      </c>
-      <c r="S32" t="n">
-        <v>0</v>
-      </c>
-      <c r="T32" t="n">
-        <v>0</v>
-      </c>
-      <c r="U32" t="n">
-        <v>0</v>
-      </c>
-      <c r="V32" t="n">
-        <v>174.6517119387887</v>
-      </c>
-      <c r="W32" t="n">
-        <v>0</v>
-      </c>
-      <c r="X32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3113,7 +3113,7 @@
         <v>60.47305475181928</v>
       </c>
       <c r="D33" t="n">
-        <v>35.20962132814229</v>
+        <v>9.113557293437379</v>
       </c>
       <c r="E33" t="n">
         <v>45.40963621890448</v>
@@ -3161,7 +3161,7 @@
         <v>59.44772686734136</v>
       </c>
       <c r="T33" t="n">
-        <v>61.83322042362008</v>
+        <v>87.92928445832514</v>
       </c>
       <c r="U33" t="n">
         <v>113.7059378444784</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>67.59653594544083</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>55.01137686213137</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>36.38002878171589</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>34.19851841007271</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>33.18560378643478</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>55.7555351219623</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>27.26535210944264</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>43.21503069076182</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>65.05794714067302</v>
       </c>
       <c r="S34" t="n">
         <v>111.7811538004758</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>115.710145191785</v>
       </c>
       <c r="U34" t="n">
-        <v>174.0835851199944</v>
+        <v>126.1000542273596</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3252,10 +3252,10 @@
         <v>174.2875541000946</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>113.4742111525407</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>106.3492091155983</v>
       </c>
     </row>
     <row r="35">
@@ -3265,76 +3265,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>225.7052502036094</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" t="n">
+        <v>227.5944243174918</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F35" t="n">
+      <c r="Y35" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="G35" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T35" t="n">
-        <v>0</v>
-      </c>
-      <c r="U35" t="n">
-        <v>0</v>
-      </c>
-      <c r="V35" t="n">
-        <v>0</v>
-      </c>
-      <c r="W35" t="n">
-        <v>0</v>
-      </c>
-      <c r="X35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3344,13 +3344,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>66.37534949722421</v>
       </c>
       <c r="C36" t="n">
-        <v>72.55066483567261</v>
+        <v>8.258238074064618</v>
       </c>
       <c r="D36" t="n">
-        <v>47.28723141199562</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>57.48724630275781</v>
@@ -3395,10 +3395,10 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>71.52533695119469</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>100.0068945421785</v>
       </c>
       <c r="U36" t="n">
         <v>125.7835479283317</v>
@@ -3413,7 +3413,7 @@
         <v>105.6151510508343</v>
       </c>
       <c r="Y36" t="n">
-        <v>88.8021105392655</v>
+        <v>105.5248616246612</v>
       </c>
     </row>
     <row r="37">
@@ -3426,16 +3426,16 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>67.0889869459847</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>48.45763886556922</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>46.27612849392604</v>
       </c>
       <c r="F37" t="n">
-        <v>45.26321387028811</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>67.83314520581563</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>77.13555722452635</v>
       </c>
       <c r="S37" t="n">
-        <v>123.8587638843291</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>177.3798833092575</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>186.3651641839479</v>
+        <v>49.93007328197068</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>125.551821236394</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>118.4268191994517</v>
       </c>
     </row>
     <row r="38">
@@ -3511,67 +3511,67 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" t="n">
+        <v>82.27934083279972</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0</v>
+      </c>
+      <c r="V38" t="n">
+        <v>130.0060448106423</v>
+      </c>
+      <c r="W38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F38" t="n">
-        <v>70.85509316554662</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
+      <c r="X38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>0</v>
-      </c>
-      <c r="R38" t="n">
-        <v>0</v>
-      </c>
-      <c r="S38" t="n">
-        <v>141.4302924778954</v>
-      </c>
-      <c r="T38" t="n">
-        <v>0</v>
-      </c>
-      <c r="U38" t="n">
-        <v>0</v>
-      </c>
-      <c r="V38" t="n">
+      <c r="Y38" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="W38" t="n">
-        <v>0</v>
-      </c>
-      <c r="X38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y38" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3584,7 +3584,7 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>105.1187218799658</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -3596,13 +3596,13 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>69.75374005486071</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>44.64566712814654</v>
+        <v>44.6456671281465</v>
       </c>
       <c r="I39" t="n">
-        <v>21.80685574306516</v>
+        <v>21.80685574306511</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,28 +3629,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>32.56805704429321</v>
+        <v>32.56805704429317</v>
       </c>
       <c r="S39" t="n">
         <v>104.0933939954879</v>
       </c>
       <c r="T39" t="n">
-        <v>132.5749515864717</v>
+        <v>132.5749515864716</v>
       </c>
       <c r="U39" t="n">
-        <v>158.3516049726249</v>
+        <v>158.3516049726248</v>
       </c>
       <c r="V39" t="n">
-        <v>82.3100538189336</v>
+        <v>165.2108100410753</v>
       </c>
       <c r="W39" t="n">
-        <v>184.1052060525697</v>
+        <v>137.9839930963005</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>138.0929186689544</v>
       </c>
     </row>
     <row r="40">
@@ -3663,7 +3663,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>99.65704399027791</v>
+        <v>99.65704399027787</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3672,7 +3672,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>31.34868067866361</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>3.227635391808188</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,16 +3711,16 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>156.4268209286223</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>218.729252248141</v>
+        <v>218.7292522481409</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>184.5478662154781</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3748,10 +3748,10 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>145.1949001911523</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>145.1949001911523</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -3790,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>127.8876680883669</v>
+        <v>145.1949001911523</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>145.1949001911523</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3802,7 +3802,7 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>127.887668088367</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3818,28 +3818,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>108.9341057560622</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>115.1094210945106</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>100.0460025615958</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>87.47013449957872</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>79.74443926940548</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>40.37071052306104</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>31.79755495760992</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3872,16 +3872,16 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>142.5656508010165</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>145.1949001911523</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>145.1949001911523</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>130.5169174785028</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -3912,13 +3912,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>110.3919014646536</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>104.6280946136345</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>87.19559577521234</v>
+        <v>11.82579147119605</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>145.1949001911523</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3960,7 +3960,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>145.1949001911523</v>
       </c>
       <c r="X43" t="n">
         <v>145.1949001911523</v>
@@ -3979,25 +3979,25 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>126.8936236865379</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>111.7679037431025</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>126.8936236865378</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>126.8936236865378</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>126.8936236865379</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4024,19 +4024,19 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>92.27004004734457</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>126.8936236865379</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>19.49786369575802</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>126.8936236865378</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -4058,22 +4058,22 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>56.46773891941218</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>100.0460025615958</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>87.47013449957876</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>79.74443926940552</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>54.63636634269135</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4109,13 +4109,13 @@
         <v>114.0840932100327</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>124.5774342196077</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>126.8936236865378</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>126.8936236865378</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
@@ -4149,16 +4149,16 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>110.3919014646536</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>104.6280946136345</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>97.85139703345317</v>
+        <v>97.85139703345313</v>
       </c>
       <c r="J46" t="n">
-        <v>35.76010222286766</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -4179,16 +4179,16 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>28.56296535788923</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>67.20888228023486</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>126.8936236865378</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>126.8936236865378</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -4200,7 +4200,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>98.7789967100438</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>286.4902934465252</v>
+        <v>383.2775547460272</v>
       </c>
       <c r="C17" t="n">
-        <v>189.7030321470234</v>
+        <v>383.2775547460272</v>
       </c>
       <c r="D17" t="n">
-        <v>189.7030321470234</v>
+        <v>383.2775547460272</v>
       </c>
       <c r="E17" t="n">
-        <v>189.7030321470234</v>
+        <v>298.027334993426</v>
       </c>
       <c r="F17" t="n">
-        <v>92.91577084752164</v>
+        <v>298.027334993426</v>
       </c>
       <c r="G17" t="n">
-        <v>92.91577084752164</v>
+        <v>201.2400736939242</v>
       </c>
       <c r="H17" t="n">
-        <v>92.91577084752164</v>
+        <v>104.4528123944224</v>
       </c>
       <c r="I17" t="n">
-        <v>7.66555109492054</v>
+        <v>7.665551094920544</v>
       </c>
       <c r="J17" t="n">
-        <v>7.66555109492054</v>
+        <v>7.665551094920544</v>
       </c>
       <c r="K17" t="n">
-        <v>102.5267458945622</v>
+        <v>102.5267458945623</v>
       </c>
       <c r="L17" t="n">
-        <v>197.3879406942039</v>
+        <v>197.387940694204</v>
       </c>
       <c r="M17" t="n">
-        <v>197.3879406942039</v>
+        <v>292.2491354938457</v>
       </c>
       <c r="N17" t="n">
-        <v>198.7563046543343</v>
+        <v>292.2491354938457</v>
       </c>
       <c r="O17" t="n">
-        <v>293.617499453976</v>
+        <v>293.6174994539762</v>
       </c>
       <c r="P17" t="n">
-        <v>383.277554746027</v>
+        <v>383.2775547460272</v>
       </c>
       <c r="Q17" t="n">
-        <v>383.277554746027</v>
+        <v>383.2775547460272</v>
       </c>
       <c r="R17" t="n">
-        <v>383.277554746027</v>
+        <v>383.2775547460272</v>
       </c>
       <c r="S17" t="n">
-        <v>383.277554746027</v>
+        <v>383.2775547460272</v>
       </c>
       <c r="T17" t="n">
-        <v>383.277554746027</v>
+        <v>383.2775547460272</v>
       </c>
       <c r="U17" t="n">
-        <v>383.277554746027</v>
+        <v>383.2775547460272</v>
       </c>
       <c r="V17" t="n">
-        <v>383.277554746027</v>
+        <v>383.2775547460272</v>
       </c>
       <c r="W17" t="n">
-        <v>383.277554746027</v>
+        <v>383.2775547460272</v>
       </c>
       <c r="X17" t="n">
-        <v>383.277554746027</v>
+        <v>383.2775547460272</v>
       </c>
       <c r="Y17" t="n">
-        <v>286.4902934465252</v>
+        <v>383.2775547460272</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>52.76218455769482</v>
+        <v>230.5237596794803</v>
       </c>
       <c r="C18" t="n">
-        <v>52.76218455769482</v>
+        <v>133.7364983799785</v>
       </c>
       <c r="D18" t="n">
-        <v>52.76218455769482</v>
+        <v>133.7364983799785</v>
       </c>
       <c r="E18" t="n">
-        <v>52.76218455769482</v>
+        <v>133.7364983799785</v>
       </c>
       <c r="F18" t="n">
-        <v>52.76218455769482</v>
+        <v>101.1933808322358</v>
       </c>
       <c r="G18" t="n">
-        <v>52.76218455769482</v>
+        <v>7.665551094920544</v>
       </c>
       <c r="H18" t="n">
-        <v>52.76218455769482</v>
+        <v>7.665551094920544</v>
       </c>
       <c r="I18" t="n">
-        <v>7.66555109492054</v>
+        <v>7.665551094920544</v>
       </c>
       <c r="J18" t="n">
-        <v>7.66555109492054</v>
+        <v>7.665551094920544</v>
       </c>
       <c r="K18" t="n">
-        <v>7.66555109492054</v>
+        <v>102.5267458945623</v>
       </c>
       <c r="L18" t="n">
-        <v>102.5267458945622</v>
+        <v>197.387940694204</v>
       </c>
       <c r="M18" t="n">
-        <v>193.5551651467436</v>
+        <v>292.2491354938457</v>
       </c>
       <c r="N18" t="n">
-        <v>193.5551651467436</v>
+        <v>313.8829962326979</v>
       </c>
       <c r="O18" t="n">
-        <v>288.4163599463853</v>
+        <v>313.8829962326979</v>
       </c>
       <c r="P18" t="n">
-        <v>383.277554746027</v>
+        <v>313.8829962326979</v>
       </c>
       <c r="Q18" t="n">
-        <v>383.277554746027</v>
+        <v>383.2775547460272</v>
       </c>
       <c r="R18" t="n">
-        <v>327.3110209789819</v>
+        <v>327.3110209789822</v>
       </c>
       <c r="S18" t="n">
-        <v>230.5237596794801</v>
+        <v>327.3110209789822</v>
       </c>
       <c r="T18" t="n">
-        <v>230.5237596794801</v>
+        <v>327.3110209789822</v>
       </c>
       <c r="U18" t="n">
-        <v>230.5237596794801</v>
+        <v>327.3110209789822</v>
       </c>
       <c r="V18" t="n">
-        <v>133.7364983799783</v>
+        <v>327.3110209789822</v>
       </c>
       <c r="W18" t="n">
-        <v>133.7364983799783</v>
+        <v>327.3110209789822</v>
       </c>
       <c r="X18" t="n">
-        <v>133.7364983799783</v>
+        <v>327.3110209789822</v>
       </c>
       <c r="Y18" t="n">
-        <v>133.7364983799783</v>
+        <v>327.3110209789822</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>189.7030321470234</v>
+        <v>104.4528123944224</v>
       </c>
       <c r="C19" t="n">
-        <v>189.7030321470234</v>
+        <v>104.4528123944224</v>
       </c>
       <c r="D19" t="n">
-        <v>92.91577084752164</v>
+        <v>7.665551094920544</v>
       </c>
       <c r="E19" t="n">
-        <v>92.91577084752164</v>
+        <v>7.665551094920544</v>
       </c>
       <c r="F19" t="n">
-        <v>92.91577084752164</v>
+        <v>7.665551094920544</v>
       </c>
       <c r="G19" t="n">
-        <v>92.91577084752164</v>
+        <v>7.665551094920544</v>
       </c>
       <c r="H19" t="n">
-        <v>92.91577084752164</v>
+        <v>7.665551094920544</v>
       </c>
       <c r="I19" t="n">
-        <v>7.66555109492054</v>
+        <v>7.665551094920544</v>
       </c>
       <c r="J19" t="n">
-        <v>7.66555109492054</v>
+        <v>7.665551094920544</v>
       </c>
       <c r="K19" t="n">
-        <v>29.92221025333237</v>
+        <v>29.92221025333242</v>
       </c>
       <c r="L19" t="n">
-        <v>101.5397913270812</v>
+        <v>101.5397913270813</v>
       </c>
       <c r="M19" t="n">
-        <v>185.0312855853393</v>
+        <v>185.0312855853394</v>
       </c>
       <c r="N19" t="n">
-        <v>273.0255923068114</v>
+        <v>273.0255923068116</v>
       </c>
       <c r="O19" t="n">
-        <v>341.6683250077465</v>
+        <v>341.6683250077467</v>
       </c>
       <c r="P19" t="n">
-        <v>383.277554746027</v>
+        <v>383.2775547460272</v>
       </c>
       <c r="Q19" t="n">
-        <v>383.277554746027</v>
+        <v>383.2775547460272</v>
       </c>
       <c r="R19" t="n">
-        <v>383.277554746027</v>
+        <v>286.4902934465254</v>
       </c>
       <c r="S19" t="n">
-        <v>383.277554746027</v>
+        <v>201.2400736939242</v>
       </c>
       <c r="T19" t="n">
-        <v>286.4902934465252</v>
+        <v>201.2400736939242</v>
       </c>
       <c r="U19" t="n">
-        <v>189.7030321470234</v>
+        <v>201.2400736939242</v>
       </c>
       <c r="V19" t="n">
-        <v>189.7030321470234</v>
+        <v>104.4528123944224</v>
       </c>
       <c r="W19" t="n">
-        <v>189.7030321470234</v>
+        <v>104.4528123944224</v>
       </c>
       <c r="X19" t="n">
-        <v>189.7030321470234</v>
+        <v>104.4528123944224</v>
       </c>
       <c r="Y19" t="n">
-        <v>189.7030321470234</v>
+        <v>104.4528123944224</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>239.6764515811911</v>
+        <v>247.2289159916072</v>
       </c>
       <c r="C20" t="n">
-        <v>239.6764515811911</v>
+        <v>131.9555168086564</v>
       </c>
       <c r="D20" t="n">
-        <v>239.6764515811911</v>
+        <v>16.6821176257056</v>
       </c>
       <c r="E20" t="n">
-        <v>124.4030523982404</v>
+        <v>9.129653215289702</v>
       </c>
       <c r="F20" t="n">
-        <v>9.129653215289697</v>
+        <v>9.129653215289702</v>
       </c>
       <c r="G20" t="n">
-        <v>9.129653215289697</v>
+        <v>9.129653215289702</v>
       </c>
       <c r="H20" t="n">
-        <v>9.129653215289697</v>
+        <v>9.129653215289702</v>
       </c>
       <c r="I20" t="n">
-        <v>9.129653215289697</v>
+        <v>9.129653215289702</v>
       </c>
       <c r="J20" t="n">
-        <v>9.129653215289697</v>
+        <v>9.129653215289702</v>
       </c>
       <c r="K20" t="n">
-        <v>9.129653215289697</v>
+        <v>112.1446591262121</v>
       </c>
       <c r="L20" t="n">
-        <v>122.1091117544997</v>
+        <v>225.1241176654221</v>
       </c>
       <c r="M20" t="n">
-        <v>235.0885702937097</v>
+        <v>338.1035762046322</v>
       </c>
       <c r="N20" t="n">
-        <v>348.0680288329197</v>
+        <v>451.0830347438422</v>
       </c>
       <c r="O20" t="n">
-        <v>456.4826607644848</v>
+        <v>456.4826607644851</v>
       </c>
       <c r="P20" t="n">
-        <v>456.4826607644848</v>
+        <v>456.4826607644851</v>
       </c>
       <c r="Q20" t="n">
-        <v>456.4826607644848</v>
+        <v>456.4826607644851</v>
       </c>
       <c r="R20" t="n">
-        <v>456.4826607644848</v>
+        <v>362.502315174558</v>
       </c>
       <c r="S20" t="n">
-        <v>456.4826607644848</v>
+        <v>362.502315174558</v>
       </c>
       <c r="T20" t="n">
-        <v>456.4826607644848</v>
+        <v>362.502315174558</v>
       </c>
       <c r="U20" t="n">
-        <v>456.4826607644848</v>
+        <v>362.502315174558</v>
       </c>
       <c r="V20" t="n">
-        <v>354.9498507641418</v>
+        <v>362.502315174558</v>
       </c>
       <c r="W20" t="n">
-        <v>354.9498507641418</v>
+        <v>362.502315174558</v>
       </c>
       <c r="X20" t="n">
-        <v>239.6764515811911</v>
+        <v>362.502315174558</v>
       </c>
       <c r="Y20" t="n">
-        <v>239.6764515811911</v>
+        <v>362.502315174558</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>123.3549041247665</v>
+        <v>110.6624632156327</v>
       </c>
       <c r="C21" t="n">
-        <v>123.3549041247665</v>
+        <v>110.6624632156327</v>
       </c>
       <c r="D21" t="n">
-        <v>123.3549041247665</v>
+        <v>110.6624632156327</v>
       </c>
       <c r="E21" t="n">
-        <v>123.3549041247665</v>
+        <v>110.6624632156327</v>
       </c>
       <c r="F21" t="n">
-        <v>123.3549041247665</v>
+        <v>90.45787680729853</v>
       </c>
       <c r="G21" t="n">
-        <v>42.0266805327576</v>
+        <v>9.129653215289702</v>
       </c>
       <c r="H21" t="n">
-        <v>42.0266805327576</v>
+        <v>9.129653215289702</v>
       </c>
       <c r="I21" t="n">
-        <v>9.129653215289697</v>
+        <v>9.129653215289702</v>
       </c>
       <c r="J21" t="n">
-        <v>9.129653215289697</v>
+        <v>9.129653215289702</v>
       </c>
       <c r="K21" t="n">
-        <v>117.5442851468549</v>
+        <v>122.1091117544998</v>
       </c>
       <c r="L21" t="n">
-        <v>230.5237436860648</v>
+        <v>235.0885702937098</v>
       </c>
       <c r="M21" t="n">
-        <v>343.5032022252748</v>
+        <v>348.0680288329199</v>
       </c>
       <c r="N21" t="n">
-        <v>456.4826607644848</v>
+        <v>348.0680288329199</v>
       </c>
       <c r="O21" t="n">
-        <v>456.4826607644848</v>
+        <v>348.0680288329199</v>
       </c>
       <c r="P21" t="n">
-        <v>456.4826607644848</v>
+        <v>456.4826607644851</v>
       </c>
       <c r="Q21" t="n">
-        <v>456.4826607644848</v>
+        <v>456.4826607644851</v>
       </c>
       <c r="R21" t="n">
-        <v>456.4826607644848</v>
+        <v>456.4826607644851</v>
       </c>
       <c r="S21" t="n">
-        <v>341.2092615815341</v>
+        <v>341.2092615815343</v>
       </c>
       <c r="T21" t="n">
-        <v>341.2092615815341</v>
+        <v>225.9358623985835</v>
       </c>
       <c r="U21" t="n">
-        <v>234.1676393194589</v>
+        <v>225.9358623985835</v>
       </c>
       <c r="V21" t="n">
-        <v>234.1676393194589</v>
+        <v>110.6624632156327</v>
       </c>
       <c r="W21" t="n">
-        <v>234.1676393194589</v>
+        <v>110.6624632156327</v>
       </c>
       <c r="X21" t="n">
-        <v>234.1676393194589</v>
+        <v>110.6624632156327</v>
       </c>
       <c r="Y21" t="n">
-        <v>234.1676393194589</v>
+        <v>110.6624632156327</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>9.129653215289697</v>
+        <v>426.8528956689573</v>
       </c>
       <c r="C22" t="n">
-        <v>9.129653215289697</v>
+        <v>426.8528956689573</v>
       </c>
       <c r="D22" t="n">
-        <v>9.129653215289697</v>
+        <v>426.8528956689573</v>
       </c>
       <c r="E22" t="n">
-        <v>9.129653215289697</v>
+        <v>336.3424039119399</v>
       </c>
       <c r="F22" t="n">
-        <v>9.129653215289697</v>
+        <v>246.8550582394052</v>
       </c>
       <c r="G22" t="n">
-        <v>9.129653215289697</v>
+        <v>134.5698021269437</v>
       </c>
       <c r="H22" t="n">
-        <v>9.129653215289697</v>
+        <v>28.10657313672385</v>
       </c>
       <c r="I22" t="n">
-        <v>9.129653215289697</v>
+        <v>28.10657313672385</v>
       </c>
       <c r="J22" t="n">
-        <v>9.129653215289697</v>
+        <v>9.129653215289702</v>
       </c>
       <c r="K22" t="n">
         <v>43.34314635671632</v>
       </c>
       <c r="L22" t="n">
-        <v>126.9175614134799</v>
+        <v>126.9175614134801</v>
       </c>
       <c r="M22" t="n">
-        <v>222.3658896547528</v>
+        <v>222.3658896547529</v>
       </c>
       <c r="N22" t="n">
-        <v>322.3170303592397</v>
+        <v>322.3170303592399</v>
       </c>
       <c r="O22" t="n">
-        <v>402.9165970431896</v>
+        <v>402.9165970431899</v>
       </c>
       <c r="P22" t="n">
-        <v>456.4826607644848</v>
+        <v>456.4826607644851</v>
       </c>
       <c r="Q22" t="n">
-        <v>456.4826607644848</v>
+        <v>426.8528956689573</v>
       </c>
       <c r="R22" t="n">
-        <v>354.9498507641418</v>
+        <v>426.8528956689573</v>
       </c>
       <c r="S22" t="n">
-        <v>239.6764515811911</v>
+        <v>426.8528956689573</v>
       </c>
       <c r="T22" t="n">
-        <v>124.4030523982404</v>
+        <v>426.8528956689573</v>
       </c>
       <c r="U22" t="n">
-        <v>124.4030523982404</v>
+        <v>426.8528956689573</v>
       </c>
       <c r="V22" t="n">
-        <v>124.4030523982404</v>
+        <v>426.8528956689573</v>
       </c>
       <c r="W22" t="n">
-        <v>124.4030523982404</v>
+        <v>426.8528956689573</v>
       </c>
       <c r="X22" t="n">
-        <v>124.4030523982404</v>
+        <v>426.8528956689573</v>
       </c>
       <c r="Y22" t="n">
-        <v>9.129653215289697</v>
+        <v>426.8528956689573</v>
       </c>
     </row>
     <row r="23">
@@ -5965,10 +5965,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C23" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D23" t="n">
         <v>19.28114311021272</v>
@@ -6016,25 +6016,25 @@
         <v>902.973837238177</v>
       </c>
       <c r="S23" t="n">
-        <v>782.1420829605706</v>
+        <v>902.973837238177</v>
       </c>
       <c r="T23" t="n">
-        <v>782.1420829605706</v>
+        <v>767.9241233869484</v>
       </c>
       <c r="U23" t="n">
-        <v>749.627473042513</v>
+        <v>604.3392546430883</v>
       </c>
       <c r="V23" t="n">
-        <v>749.627473042513</v>
+        <v>363.5759964423612</v>
       </c>
       <c r="W23" t="n">
-        <v>749.627473042513</v>
+        <v>120.1272197982611</v>
       </c>
       <c r="X23" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y23" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="24">
@@ -6044,13 +6044,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>199.2127036243242</v>
+        <v>358.7427811839057</v>
       </c>
       <c r="C24" t="n">
-        <v>199.2127036243242</v>
+        <v>274.5893810456221</v>
       </c>
       <c r="D24" t="n">
-        <v>147.0167746646024</v>
+        <v>215.9546005272144</v>
       </c>
       <c r="E24" t="n">
         <v>147.0167746646024</v>
@@ -6074,13 +6074,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2442489785619</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M24" t="n">
-        <v>487.8483949674443</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N24" t="n">
-        <v>487.8483949674443</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O24" t="n">
         <v>712.019119383956</v>
@@ -6098,22 +6098,22 @@
         <v>880.9394401041486</v>
       </c>
       <c r="T24" t="n">
-        <v>880.9394401041486</v>
+        <v>769.0524746057582</v>
       </c>
       <c r="U24" t="n">
-        <v>743.0154509833812</v>
+        <v>631.1284854849908</v>
       </c>
       <c r="V24" t="n">
-        <v>598.1629718944821</v>
+        <v>631.1284854849908</v>
       </c>
       <c r="W24" t="n">
-        <v>434.2252443091239</v>
+        <v>631.1284854849908</v>
       </c>
       <c r="X24" t="n">
-        <v>316.6733732464346</v>
+        <v>513.5766144223015</v>
       </c>
       <c r="Y24" t="n">
-        <v>199.2127036243242</v>
+        <v>436.6584890611302</v>
       </c>
     </row>
     <row r="25">
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>99.6663332130473</v>
+        <v>149.4376631380316</v>
       </c>
       <c r="C25" t="n">
-        <v>86.00219571207455</v>
+        <v>149.4376631380316</v>
       </c>
       <c r="D25" t="n">
-        <v>86.00219571207455</v>
+        <v>149.4376631380316</v>
       </c>
       <c r="E25" t="n">
-        <v>86.00219571207455</v>
+        <v>149.4376631380316</v>
       </c>
       <c r="F25" t="n">
-        <v>86.00219571207455</v>
+        <v>92.84734478296475</v>
       </c>
       <c r="G25" t="n">
-        <v>86.00219571207455</v>
+        <v>92.84734478296475</v>
       </c>
       <c r="H25" t="n">
-        <v>86.00219571207455</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I25" t="n">
         <v>19.28114311021272</v>
@@ -6171,28 +6171,28 @@
         <v>663.2906532062331</v>
       </c>
       <c r="R25" t="n">
-        <v>574.5060486347639</v>
+        <v>663.2906532062331</v>
       </c>
       <c r="S25" t="n">
-        <v>438.5262858210698</v>
+        <v>663.2906532062331</v>
       </c>
       <c r="T25" t="n">
-        <v>298.577844834336</v>
+        <v>523.3422122194993</v>
       </c>
       <c r="U25" t="n">
-        <v>99.6663332130473</v>
+        <v>523.3422122194993</v>
       </c>
       <c r="V25" t="n">
-        <v>99.6663332130473</v>
+        <v>358.9573531564559</v>
       </c>
       <c r="W25" t="n">
-        <v>99.6663332130473</v>
+        <v>159.8398122623388</v>
       </c>
       <c r="X25" t="n">
-        <v>99.6663332130473</v>
+        <v>149.4376631380316</v>
       </c>
       <c r="Y25" t="n">
-        <v>99.6663332130473</v>
+        <v>149.4376631380316</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>506.1786963984129</v>
+        <v>708.1756873818013</v>
       </c>
       <c r="C26" t="n">
-        <v>506.1786963984129</v>
+        <v>708.1756873818013</v>
       </c>
       <c r="D26" t="n">
-        <v>506.1786963984129</v>
+        <v>464.7269107377012</v>
       </c>
       <c r="E26" t="n">
-        <v>262.7299197543128</v>
+        <v>464.7269107377012</v>
       </c>
       <c r="F26" t="n">
         <v>262.7299197543128</v>
       </c>
       <c r="G26" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H26" t="n">
         <v>19.28114311021272</v>
@@ -6253,25 +6253,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S26" t="n">
-        <v>964.0571555106362</v>
+        <v>843.2254012330299</v>
       </c>
       <c r="T26" t="n">
-        <v>964.0571555106362</v>
+        <v>708.1756873818013</v>
       </c>
       <c r="U26" t="n">
-        <v>964.0571555106362</v>
+        <v>708.1756873818013</v>
       </c>
       <c r="V26" t="n">
-        <v>749.627473042513</v>
+        <v>708.1756873818013</v>
       </c>
       <c r="W26" t="n">
-        <v>749.627473042513</v>
+        <v>708.1756873818013</v>
       </c>
       <c r="X26" t="n">
-        <v>506.1786963984129</v>
+        <v>708.1756873818013</v>
       </c>
       <c r="Y26" t="n">
-        <v>506.1786963984129</v>
+        <v>708.1756873818013</v>
       </c>
     </row>
     <row r="27">
@@ -6281,22 +6281,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>260.853278655448</v>
+        <v>103.4345432484962</v>
       </c>
       <c r="C27" t="n">
-        <v>205.6515551830101</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D27" t="n">
-        <v>147.0167746646024</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E27" t="n">
-        <v>147.0167746646024</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F27" t="n">
-        <v>90.78184583433085</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G27" t="n">
-        <v>42.35064955978989</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H27" t="n">
         <v>19.28114311021272</v>
@@ -6311,16 +6311,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>374.6018090363993</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M27" t="n">
-        <v>613.2059550252818</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N27" t="n">
-        <v>851.8101010141643</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O27" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P27" t="n">
         <v>894.6625969973069</v>
@@ -6329,28 +6329,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>953.1872552063654</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>870.0695397998778</v>
+        <v>880.9394401041486</v>
       </c>
       <c r="T27" t="n">
-        <v>758.1825743014874</v>
+        <v>769.0524746057582</v>
       </c>
       <c r="U27" t="n">
-        <v>620.25858518072</v>
+        <v>631.1284854849908</v>
       </c>
       <c r="V27" t="n">
-        <v>620.25858518072</v>
+        <v>486.2760063960916</v>
       </c>
       <c r="W27" t="n">
-        <v>456.3208575953619</v>
+        <v>322.3382788107335</v>
       </c>
       <c r="X27" t="n">
-        <v>338.7689865326726</v>
+        <v>204.7864077480442</v>
       </c>
       <c r="Y27" t="n">
-        <v>338.7689865326726</v>
+        <v>181.3502511257207</v>
       </c>
     </row>
     <row r="28">
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>19.28114311021272</v>
+        <v>200.205978506691</v>
       </c>
       <c r="C28" t="n">
-        <v>19.28114311021272</v>
+        <v>200.205978506691</v>
       </c>
       <c r="D28" t="n">
-        <v>19.28114311021272</v>
+        <v>200.205978506691</v>
       </c>
       <c r="E28" t="n">
-        <v>19.28114311021272</v>
+        <v>142.5925140671414</v>
       </c>
       <c r="F28" t="n">
-        <v>19.28114311021272</v>
+        <v>86.00219571207455</v>
       </c>
       <c r="G28" t="n">
-        <v>19.28114311021272</v>
+        <v>86.00219571207455</v>
       </c>
       <c r="H28" t="n">
-        <v>19.28114311021272</v>
+        <v>86.00219571207455</v>
       </c>
       <c r="I28" t="n">
         <v>19.28114311021272</v>
@@ -6411,25 +6411,25 @@
         <v>574.5060486347639</v>
       </c>
       <c r="S28" t="n">
-        <v>574.5060486347639</v>
+        <v>438.5262858210698</v>
       </c>
       <c r="T28" t="n">
-        <v>574.5060486347639</v>
+        <v>438.5262858210698</v>
       </c>
       <c r="U28" t="n">
-        <v>375.5945370134752</v>
+        <v>337.8959002618648</v>
       </c>
       <c r="V28" t="n">
-        <v>375.5945370134752</v>
+        <v>337.8959002618648</v>
       </c>
       <c r="W28" t="n">
-        <v>176.4769961193581</v>
+        <v>337.8959002618648</v>
       </c>
       <c r="X28" t="n">
-        <v>110.6299787976089</v>
+        <v>200.205978506691</v>
       </c>
       <c r="Y28" t="n">
-        <v>110.6299787976089</v>
+        <v>200.205978506691</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>720.6083788665362</v>
+        <v>281.0265700987483</v>
       </c>
       <c r="C29" t="n">
-        <v>720.6083788665362</v>
+        <v>281.0265700987483</v>
       </c>
       <c r="D29" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E29" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F29" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G29" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H29" t="n">
         <v>19.28114311021272</v>
@@ -6487,28 +6487,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R29" t="n">
-        <v>964.0571555106362</v>
+        <v>902.973837238177</v>
       </c>
       <c r="S29" t="n">
-        <v>964.0571555106362</v>
+        <v>902.973837238177</v>
       </c>
       <c r="T29" t="n">
-        <v>964.0571555106362</v>
+        <v>767.9241233869484</v>
       </c>
       <c r="U29" t="n">
-        <v>964.0571555106362</v>
+        <v>767.9241233869484</v>
       </c>
       <c r="V29" t="n">
-        <v>964.0571555106362</v>
+        <v>767.9241233869484</v>
       </c>
       <c r="W29" t="n">
-        <v>964.0571555106362</v>
+        <v>767.9241233869484</v>
       </c>
       <c r="X29" t="n">
-        <v>964.0571555106362</v>
+        <v>524.4753467428484</v>
       </c>
       <c r="Y29" t="n">
-        <v>720.6083788665362</v>
+        <v>281.0265700987483</v>
       </c>
     </row>
     <row r="30">
@@ -6518,13 +6518,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>289.8049553212936</v>
+        <v>358.7427811839057</v>
       </c>
       <c r="C30" t="n">
-        <v>205.6515551830101</v>
+        <v>274.5893810456221</v>
       </c>
       <c r="D30" t="n">
-        <v>147.0167746646024</v>
+        <v>215.9546005272144</v>
       </c>
       <c r="E30" t="n">
         <v>147.0167746646024</v>
@@ -6554,7 +6554,7 @@
         <v>487.8483949674443</v>
       </c>
       <c r="N30" t="n">
-        <v>726.4525409563269</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O30" t="n">
         <v>964.0571555106362</v>
@@ -6569,25 +6569,25 @@
         <v>953.1872552063654</v>
       </c>
       <c r="S30" t="n">
-        <v>870.0695397998778</v>
+        <v>953.1872552063654</v>
       </c>
       <c r="T30" t="n">
-        <v>758.1825743014874</v>
+        <v>841.300289707975</v>
       </c>
       <c r="U30" t="n">
-        <v>620.25858518072</v>
+        <v>703.3763005872077</v>
       </c>
       <c r="V30" t="n">
-        <v>620.25858518072</v>
+        <v>558.5238214983085</v>
       </c>
       <c r="W30" t="n">
-        <v>602.7332038833179</v>
+        <v>558.5238214983085</v>
       </c>
       <c r="X30" t="n">
-        <v>485.1813328206285</v>
+        <v>554.1191586832406</v>
       </c>
       <c r="Y30" t="n">
-        <v>367.7206631985181</v>
+        <v>436.6584890611302</v>
       </c>
     </row>
     <row r="31">
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>23.28371610542252</v>
+        <v>206.4120973318434</v>
       </c>
       <c r="C31" t="n">
-        <v>23.28371610542252</v>
+        <v>206.4120973318434</v>
       </c>
       <c r="D31" t="n">
-        <v>23.28371610542252</v>
+        <v>146.5950870623512</v>
       </c>
       <c r="E31" t="n">
-        <v>23.28371610542252</v>
+        <v>146.5950870623512</v>
       </c>
       <c r="F31" t="n">
-        <v>23.28371610542252</v>
+        <v>90.00476870728434</v>
       </c>
       <c r="G31" t="n">
-        <v>23.28371610542252</v>
+        <v>90.00476870728434</v>
       </c>
       <c r="H31" t="n">
-        <v>23.28371610542252</v>
+        <v>90.00476870728434</v>
       </c>
       <c r="I31" t="n">
         <v>23.28371610542252</v>
@@ -6648,25 +6648,25 @@
         <v>663.2906532062331</v>
       </c>
       <c r="S31" t="n">
-        <v>663.2906532062331</v>
+        <v>527.3108903925389</v>
       </c>
       <c r="T31" t="n">
-        <v>523.3422122194993</v>
+        <v>527.3108903925389</v>
       </c>
       <c r="U31" t="n">
-        <v>324.4307005982106</v>
+        <v>527.3108903925389</v>
       </c>
       <c r="V31" t="n">
-        <v>324.4307005982106</v>
+        <v>527.3108903925389</v>
       </c>
       <c r="W31" t="n">
-        <v>125.3131597040935</v>
+        <v>527.3108903925389</v>
       </c>
       <c r="X31" t="n">
-        <v>125.3131597040935</v>
+        <v>428.2538830199262</v>
       </c>
       <c r="Y31" t="n">
-        <v>23.28371610542252</v>
+        <v>297.7609330192396</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>749.627473042513</v>
+        <v>481.2088591888426</v>
       </c>
       <c r="C32" t="n">
-        <v>506.1786963984129</v>
+        <v>237.7600825447425</v>
       </c>
       <c r="D32" t="n">
-        <v>262.7299197543128</v>
+        <v>237.7600825447425</v>
       </c>
       <c r="E32" t="n">
-        <v>19.28114311021272</v>
+        <v>237.7600825447425</v>
       </c>
       <c r="F32" t="n">
-        <v>19.28114311021272</v>
+        <v>237.7600825447425</v>
       </c>
       <c r="G32" t="n">
         <v>19.28114311021272</v>
@@ -6724,28 +6724,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R32" t="n">
-        <v>926.0433436877541</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S32" t="n">
-        <v>926.0433436877541</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T32" t="n">
-        <v>926.0433436877541</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U32" t="n">
-        <v>926.0433436877541</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V32" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W32" t="n">
-        <v>749.627473042513</v>
+        <v>724.6576358329427</v>
       </c>
       <c r="X32" t="n">
-        <v>749.627473042513</v>
+        <v>724.6576358329427</v>
       </c>
       <c r="Y32" t="n">
-        <v>749.627473042513</v>
+        <v>481.2088591888426</v>
       </c>
     </row>
     <row r="33">
@@ -6755,10 +6755,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>220.3257424864427</v>
+        <v>193.9660818453266</v>
       </c>
       <c r="C33" t="n">
-        <v>159.2418487977363</v>
+        <v>132.8821881566203</v>
       </c>
       <c r="D33" t="n">
         <v>123.6765747289057</v>
@@ -6785,16 +6785,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2442489785619</v>
+        <v>65.60123993063803</v>
       </c>
       <c r="M33" t="n">
-        <v>487.8483949674443</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N33" t="n">
-        <v>725.4530095217538</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O33" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P33" t="n">
         <v>964.0571555106362</v>
@@ -6809,22 +6809,22 @@
         <v>904.0089465537258</v>
       </c>
       <c r="T33" t="n">
-        <v>841.5511481460287</v>
+        <v>815.1914875049125</v>
       </c>
       <c r="U33" t="n">
-        <v>726.6966654748385</v>
+        <v>700.3370048337223</v>
       </c>
       <c r="V33" t="n">
-        <v>604.9136928355165</v>
+        <v>578.5540321944003</v>
       </c>
       <c r="W33" t="n">
-        <v>464.0454716997355</v>
+        <v>437.6858110586193</v>
       </c>
       <c r="X33" t="n">
-        <v>369.5631070866233</v>
+        <v>343.2034464455072</v>
       </c>
       <c r="Y33" t="n">
-        <v>275.17194391409</v>
+        <v>248.812283272974</v>
       </c>
     </row>
     <row r="34">
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>307.171492365285</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C34" t="n">
-        <v>251.6044450297987</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D34" t="n">
-        <v>214.8569412098837</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E34" t="n">
-        <v>180.3129832199113</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F34" t="n">
-        <v>146.7921713144216</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G34" t="n">
-        <v>90.47344896900512</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H34" t="n">
-        <v>62.9326892624974</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I34" t="n">
         <v>19.28114311021272</v>
@@ -6882,28 +6882,28 @@
         <v>840.2511175834725</v>
       </c>
       <c r="R34" t="n">
-        <v>840.2511175834725</v>
+        <v>774.5360194615805</v>
       </c>
       <c r="S34" t="n">
-        <v>727.3408612193555</v>
+        <v>661.6257630974635</v>
       </c>
       <c r="T34" t="n">
-        <v>727.3408612193555</v>
+        <v>544.7468285603069</v>
       </c>
       <c r="U34" t="n">
-        <v>551.4988560476439</v>
+        <v>417.3730364114588</v>
       </c>
       <c r="V34" t="n">
-        <v>551.4988560476439</v>
+        <v>417.3730364114588</v>
       </c>
       <c r="W34" t="n">
-        <v>375.450821603104</v>
+        <v>241.3250019669188</v>
       </c>
       <c r="X34" t="n">
-        <v>375.450821603104</v>
+        <v>126.7045866613222</v>
       </c>
       <c r="Y34" t="n">
-        <v>375.450821603104</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C35" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D35" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E35" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F35" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G35" t="n">
         <v>19.28114311021272</v>
@@ -6973,16 +6973,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V35" t="n">
-        <v>964.0571555106362</v>
+        <v>734.1637976141799</v>
       </c>
       <c r="W35" t="n">
-        <v>964.0571555106362</v>
+        <v>734.1637976141799</v>
       </c>
       <c r="X35" t="n">
-        <v>964.0571555106362</v>
+        <v>490.7150209700798</v>
       </c>
       <c r="Y35" t="n">
-        <v>964.0571555106362</v>
+        <v>247.2662443259798</v>
       </c>
     </row>
     <row r="36">
@@ -6992,10 +6992,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>281.3237732129746</v>
+        <v>168.6170477850922</v>
       </c>
       <c r="C36" t="n">
-        <v>208.0402733789619</v>
+        <v>160.2753931648249</v>
       </c>
       <c r="D36" t="n">
         <v>160.2753931648249</v>
@@ -7022,16 +7022,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2442489785619</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M36" t="n">
-        <v>249.2442489785619</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N36" t="n">
-        <v>487.8483949674443</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O36" t="n">
-        <v>726.4525409563269</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P36" t="n">
         <v>894.6625969973069</v>
@@ -7043,25 +7043,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>891.8093404084193</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T36" t="n">
-        <v>891.8093404084193</v>
+        <v>863.0400903165165</v>
       </c>
       <c r="U36" t="n">
-        <v>764.7552515919226</v>
+        <v>735.9860015000198</v>
       </c>
       <c r="V36" t="n">
-        <v>630.7726728072942</v>
+        <v>602.0034227153915</v>
       </c>
       <c r="W36" t="n">
-        <v>477.7048455262068</v>
+        <v>448.9355954343041</v>
       </c>
       <c r="X36" t="n">
-        <v>371.0228747677883</v>
+        <v>342.2536246758856</v>
       </c>
       <c r="Y36" t="n">
-        <v>281.3237732129746</v>
+        <v>235.662855358046</v>
       </c>
     </row>
     <row r="37">
@@ -7071,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>252.067343317804</v>
+        <v>369.8042528483008</v>
       </c>
       <c r="C37" t="n">
-        <v>252.067343317804</v>
+        <v>302.0375993675082</v>
       </c>
       <c r="D37" t="n">
-        <v>252.067343317804</v>
+        <v>253.0904894022867</v>
       </c>
       <c r="E37" t="n">
-        <v>252.067343317804</v>
+        <v>206.3469252670079</v>
       </c>
       <c r="F37" t="n">
         <v>206.3469252670079</v>
@@ -7119,28 +7119,28 @@
         <v>744.5964457193541</v>
       </c>
       <c r="R37" t="n">
-        <v>744.5964457193541</v>
+        <v>666.6817414521557</v>
       </c>
       <c r="S37" t="n">
-        <v>619.4865832099307</v>
+        <v>666.6817414521557</v>
       </c>
       <c r="T37" t="n">
-        <v>619.4865832099307</v>
+        <v>666.6817414521557</v>
       </c>
       <c r="U37" t="n">
-        <v>440.3149839076503</v>
+        <v>666.6817414521557</v>
       </c>
       <c r="V37" t="n">
-        <v>440.3149839076503</v>
+        <v>666.6817414521557</v>
       </c>
       <c r="W37" t="n">
-        <v>252.067343317804</v>
+        <v>616.2473239956197</v>
       </c>
       <c r="X37" t="n">
-        <v>252.067343317804</v>
+        <v>489.4273025447166</v>
       </c>
       <c r="Y37" t="n">
-        <v>252.067343317804</v>
+        <v>369.8042528483008</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>577.7494975757327</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C38" t="n">
-        <v>577.7494975757327</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D38" t="n">
-        <v>577.7494975757327</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E38" t="n">
-        <v>334.3007209316326</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F38" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G38" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H38" t="n">
         <v>19.28114311021272</v>
@@ -7198,28 +7198,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R38" t="n">
-        <v>964.0571555106362</v>
+        <v>880.9467102249799</v>
       </c>
       <c r="S38" t="n">
-        <v>821.1982742198328</v>
+        <v>880.9467102249799</v>
       </c>
       <c r="T38" t="n">
-        <v>821.1982742198328</v>
+        <v>880.9467102249799</v>
       </c>
       <c r="U38" t="n">
-        <v>821.1982742198328</v>
+        <v>880.9467102249799</v>
       </c>
       <c r="V38" t="n">
-        <v>577.7494975757327</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W38" t="n">
-        <v>577.7494975757327</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X38" t="n">
-        <v>577.7494975757327</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y38" t="n">
-        <v>577.7494975757327</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="39">
@@ -7229,25 +7229,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>263.0437540254028</v>
+        <v>86.40490358618405</v>
       </c>
       <c r="C39" t="n">
-        <v>156.8632268739222</v>
+        <v>86.40490358618405</v>
       </c>
       <c r="D39" t="n">
-        <v>156.8632268739222</v>
+        <v>86.40490358618405</v>
       </c>
       <c r="E39" t="n">
-        <v>156.8632268739222</v>
+        <v>86.40490358618405</v>
       </c>
       <c r="F39" t="n">
-        <v>156.8632268739222</v>
+        <v>86.40490358618405</v>
       </c>
       <c r="G39" t="n">
-        <v>86.40490358618413</v>
+        <v>86.40490358618405</v>
       </c>
       <c r="H39" t="n">
-        <v>41.30827012340986</v>
+        <v>41.30827012340981</v>
       </c>
       <c r="I39" t="n">
         <v>19.28114311021272</v>
@@ -7265,13 +7265,13 @@
         <v>613.2059550252818</v>
       </c>
       <c r="N39" t="n">
-        <v>851.8101010141643</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O39" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P39" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
@@ -7280,25 +7280,25 @@
         <v>931.1601281931684</v>
       </c>
       <c r="S39" t="n">
-        <v>826.0152857734836</v>
+        <v>826.0152857734837</v>
       </c>
       <c r="T39" t="n">
-        <v>692.101193261896</v>
+        <v>692.1011932618962</v>
       </c>
       <c r="U39" t="n">
-        <v>532.1500771279315</v>
+        <v>532.1500771279318</v>
       </c>
       <c r="V39" t="n">
-        <v>449.0086086239581</v>
+        <v>365.2704710258355</v>
       </c>
       <c r="W39" t="n">
-        <v>263.0437540254028</v>
+        <v>225.8927002214915</v>
       </c>
       <c r="X39" t="n">
-        <v>263.0437540254028</v>
+        <v>225.8927002214915</v>
       </c>
       <c r="Y39" t="n">
-        <v>263.0437540254028</v>
+        <v>86.40490358618405</v>
       </c>
     </row>
     <row r="40">
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>151.6101579273254</v>
+        <v>123.2050616779764</v>
       </c>
       <c r="C40" t="n">
-        <v>50.94647712906486</v>
+        <v>22.54138087971594</v>
       </c>
       <c r="D40" t="n">
-        <v>50.94647712906486</v>
+        <v>22.54138087971594</v>
       </c>
       <c r="E40" t="n">
-        <v>50.94647712906486</v>
+        <v>22.54138087971594</v>
       </c>
       <c r="F40" t="n">
-        <v>19.28114311021272</v>
+        <v>22.54138087971594</v>
       </c>
       <c r="G40" t="n">
-        <v>19.28114311021272</v>
+        <v>22.54138087971594</v>
       </c>
       <c r="H40" t="n">
-        <v>19.28114311021272</v>
+        <v>22.54138087971594</v>
       </c>
       <c r="I40" t="n">
         <v>19.28114311021272</v>
@@ -7335,49 +7335,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K40" t="n">
-        <v>64.14822553985512</v>
+        <v>64.14822553985516</v>
       </c>
       <c r="L40" t="n">
-        <v>158.3762298848345</v>
+        <v>158.3762298848346</v>
       </c>
       <c r="M40" t="n">
-        <v>264.4781474143231</v>
+        <v>264.4781474143232</v>
       </c>
       <c r="N40" t="n">
-        <v>375.0828774070259</v>
+        <v>375.082877407026</v>
       </c>
       <c r="O40" t="n">
-        <v>466.3360333791916</v>
+        <v>466.3360333791917</v>
       </c>
       <c r="P40" t="n">
-        <v>530.5556863887025</v>
+        <v>530.5556863887027</v>
       </c>
       <c r="Q40" t="n">
-        <v>530.5556863887025</v>
+        <v>530.5556863887027</v>
       </c>
       <c r="R40" t="n">
-        <v>530.5556863887025</v>
+        <v>530.5556863887027</v>
       </c>
       <c r="S40" t="n">
-        <v>372.5487965618112</v>
+        <v>530.5556863887027</v>
       </c>
       <c r="T40" t="n">
-        <v>372.5487965618112</v>
+        <v>530.5556863887027</v>
       </c>
       <c r="U40" t="n">
-        <v>151.6101579273254</v>
+        <v>309.6170477542169</v>
       </c>
       <c r="V40" t="n">
-        <v>151.6101579273254</v>
+        <v>123.2050616779764</v>
       </c>
       <c r="W40" t="n">
-        <v>151.6101579273254</v>
+        <v>123.2050616779764</v>
       </c>
       <c r="X40" t="n">
-        <v>151.6101579273254</v>
+        <v>123.2050616779764</v>
       </c>
       <c r="Y40" t="n">
-        <v>151.6101579273254</v>
+        <v>123.2050616779764</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>451.6001380490871</v>
+        <v>158.2771073598904</v>
       </c>
       <c r="C41" t="n">
-        <v>451.6001380490871</v>
+        <v>158.2771073598904</v>
       </c>
       <c r="D41" t="n">
-        <v>451.6001380490871</v>
+        <v>158.2771073598904</v>
       </c>
       <c r="E41" t="n">
-        <v>304.9386227044888</v>
+        <v>158.2771073598904</v>
       </c>
       <c r="F41" t="n">
-        <v>158.2771073598905</v>
+        <v>158.2771073598904</v>
       </c>
       <c r="G41" t="n">
-        <v>158.2771073598905</v>
+        <v>158.2771073598904</v>
       </c>
       <c r="H41" t="n">
-        <v>11.61559201529219</v>
+        <v>11.61559201529218</v>
       </c>
       <c r="I41" t="n">
-        <v>11.61559201529219</v>
+        <v>11.61559201529218</v>
       </c>
       <c r="J41" t="n">
-        <v>11.61559201529219</v>
+        <v>11.61559201529218</v>
       </c>
       <c r="K41" t="n">
-        <v>11.61559201529219</v>
+        <v>114.6305979262145</v>
       </c>
       <c r="L41" t="n">
-        <v>155.358543204533</v>
+        <v>114.6305979262145</v>
       </c>
       <c r="M41" t="n">
-        <v>203.6336430940767</v>
+        <v>203.6336430940766</v>
       </c>
       <c r="N41" t="n">
-        <v>347.3765942833176</v>
+        <v>347.3765942833173</v>
       </c>
       <c r="O41" t="n">
-        <v>491.1195454725583</v>
+        <v>491.1195454725581</v>
       </c>
       <c r="P41" t="n">
-        <v>580.7796007646093</v>
+        <v>580.7796007646091</v>
       </c>
       <c r="Q41" t="n">
-        <v>580.7796007646093</v>
+        <v>580.7796007646091</v>
       </c>
       <c r="R41" t="n">
-        <v>580.7796007646093</v>
+        <v>580.7796007646091</v>
       </c>
       <c r="S41" t="n">
-        <v>451.6001380490871</v>
+        <v>434.1180854200109</v>
       </c>
       <c r="T41" t="n">
-        <v>451.6001380490871</v>
+        <v>287.4565700754126</v>
       </c>
       <c r="U41" t="n">
-        <v>451.6001380490871</v>
+        <v>287.4565700754126</v>
       </c>
       <c r="V41" t="n">
-        <v>451.6001380490871</v>
+        <v>287.4565700754126</v>
       </c>
       <c r="W41" t="n">
-        <v>451.6001380490871</v>
+        <v>158.2771073598904</v>
       </c>
       <c r="X41" t="n">
-        <v>451.6001380490871</v>
+        <v>158.2771073598904</v>
       </c>
       <c r="Y41" t="n">
-        <v>451.6001380490871</v>
+        <v>158.2771073598904</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>11.61559201529219</v>
+        <v>470.7451505059604</v>
       </c>
       <c r="C42" t="n">
-        <v>11.61559201529219</v>
+        <v>354.4730079862528</v>
       </c>
       <c r="D42" t="n">
-        <v>11.61559201529219</v>
+        <v>354.4730079862528</v>
       </c>
       <c r="E42" t="n">
-        <v>11.61559201529219</v>
+        <v>253.4164397422166</v>
       </c>
       <c r="F42" t="n">
-        <v>11.61559201529219</v>
+        <v>165.0627685305209</v>
       </c>
       <c r="G42" t="n">
-        <v>11.61559201529219</v>
+        <v>84.51282987455578</v>
       </c>
       <c r="H42" t="n">
-        <v>11.61559201529219</v>
+        <v>43.73433439671634</v>
       </c>
       <c r="I42" t="n">
-        <v>11.61559201529219</v>
+        <v>11.61559201529218</v>
       </c>
       <c r="J42" t="n">
-        <v>11.61559201529219</v>
+        <v>11.61559201529218</v>
       </c>
       <c r="K42" t="n">
-        <v>11.61559201529219</v>
+        <v>11.61559201529218</v>
       </c>
       <c r="L42" t="n">
-        <v>155.358543204533</v>
+        <v>11.61559201529218</v>
       </c>
       <c r="M42" t="n">
-        <v>299.1014943937738</v>
+        <v>80.15618868355756</v>
       </c>
       <c r="N42" t="n">
-        <v>437.0366495753685</v>
+        <v>223.8991398727983</v>
       </c>
       <c r="O42" t="n">
-        <v>580.7796007646093</v>
+        <v>367.6420910620391</v>
       </c>
       <c r="P42" t="n">
-        <v>580.7796007646093</v>
+        <v>511.3850422512798</v>
       </c>
       <c r="Q42" t="n">
-        <v>580.7796007646093</v>
+        <v>580.7796007646091</v>
       </c>
       <c r="R42" t="n">
-        <v>580.7796007646093</v>
+        <v>580.7796007646091</v>
       </c>
       <c r="S42" t="n">
-        <v>580.7796007646093</v>
+        <v>580.7796007646091</v>
       </c>
       <c r="T42" t="n">
-        <v>436.7738928847947</v>
+        <v>580.7796007646091</v>
       </c>
       <c r="U42" t="n">
-        <v>290.1123775401963</v>
+        <v>580.7796007646091</v>
       </c>
       <c r="V42" t="n">
-        <v>143.450862195598</v>
+        <v>580.7796007646091</v>
       </c>
       <c r="W42" t="n">
-        <v>11.61559201529219</v>
+        <v>580.7796007646091</v>
       </c>
       <c r="X42" t="n">
-        <v>11.61559201529219</v>
+        <v>580.7796007646091</v>
       </c>
       <c r="Y42" t="n">
-        <v>11.61559201529219</v>
+        <v>580.7796007646091</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>316.8838666147876</v>
+        <v>23.56083592559122</v>
       </c>
       <c r="C43" t="n">
-        <v>316.8838666147876</v>
+        <v>23.56083592559122</v>
       </c>
       <c r="D43" t="n">
-        <v>316.8838666147876</v>
+        <v>23.56083592559122</v>
       </c>
       <c r="E43" t="n">
-        <v>316.8838666147876</v>
+        <v>23.56083592559122</v>
       </c>
       <c r="F43" t="n">
-        <v>316.8838666147876</v>
+        <v>23.56083592559122</v>
       </c>
       <c r="G43" t="n">
-        <v>205.3768954383698</v>
+        <v>23.56083592559122</v>
       </c>
       <c r="H43" t="n">
-        <v>99.69195138419356</v>
+        <v>23.56083592559122</v>
       </c>
       <c r="I43" t="n">
-        <v>11.61559201529219</v>
+        <v>11.61559201529218</v>
       </c>
       <c r="J43" t="n">
-        <v>11.61559201529219</v>
+        <v>11.61559201529218</v>
       </c>
       <c r="K43" t="n">
-        <v>46.59188222253523</v>
+        <v>46.59188222253526</v>
       </c>
       <c r="L43" t="n">
         <v>130.9290943451153</v>
       </c>
       <c r="M43" t="n">
-        <v>227.1402196522045</v>
+        <v>227.1402196522046</v>
       </c>
       <c r="N43" t="n">
-        <v>327.8541574225079</v>
+        <v>327.854157422508</v>
       </c>
       <c r="O43" t="n">
-        <v>409.2165211722743</v>
+        <v>409.2165211722744</v>
       </c>
       <c r="P43" t="n">
-        <v>463.5453819593859</v>
+        <v>463.545381959386</v>
       </c>
       <c r="Q43" t="n">
-        <v>463.5453819593859</v>
+        <v>463.545381959386</v>
       </c>
       <c r="R43" t="n">
-        <v>463.5453819593859</v>
+        <v>463.545381959386</v>
       </c>
       <c r="S43" t="n">
-        <v>463.5453819593859</v>
+        <v>316.8838666147877</v>
       </c>
       <c r="T43" t="n">
-        <v>463.5453819593859</v>
+        <v>316.8838666147877</v>
       </c>
       <c r="U43" t="n">
-        <v>463.5453819593859</v>
+        <v>316.8838666147877</v>
       </c>
       <c r="V43" t="n">
-        <v>463.5453819593859</v>
+        <v>316.8838666147877</v>
       </c>
       <c r="W43" t="n">
-        <v>463.5453819593859</v>
+        <v>170.2223512701895</v>
       </c>
       <c r="X43" t="n">
-        <v>316.8838666147876</v>
+        <v>23.56083592559122</v>
       </c>
       <c r="Y43" t="n">
-        <v>316.8838666147876</v>
+        <v>23.56083592559122</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>266.5022448172219</v>
+        <v>379.399117285002</v>
       </c>
       <c r="C44" t="n">
-        <v>138.3268673560725</v>
+        <v>379.399117285002</v>
       </c>
       <c r="D44" t="n">
-        <v>138.3268673560725</v>
+        <v>379.399117285002</v>
       </c>
       <c r="E44" t="n">
-        <v>138.3268673560725</v>
+        <v>266.5022448172217</v>
       </c>
       <c r="F44" t="n">
-        <v>138.3268673560725</v>
+        <v>138.3268673560724</v>
       </c>
       <c r="G44" t="n">
-        <v>138.3268673560725</v>
+        <v>10.15148989492303</v>
       </c>
       <c r="H44" t="n">
-        <v>138.3268673560725</v>
+        <v>10.15148989492303</v>
       </c>
       <c r="I44" t="n">
         <v>10.15148989492303</v>
@@ -7654,46 +7654,46 @@
         <v>113.1664958058454</v>
       </c>
       <c r="L44" t="n">
-        <v>113.1664958058454</v>
+        <v>238.7911832555178</v>
       </c>
       <c r="M44" t="n">
-        <v>166.6650645547556</v>
+        <v>364.4158707051903</v>
       </c>
       <c r="N44" t="n">
-        <v>292.2897520044282</v>
+        <v>490.0405581548628</v>
       </c>
       <c r="O44" t="n">
-        <v>417.9144394541007</v>
+        <v>507.5744947461513</v>
       </c>
       <c r="P44" t="n">
-        <v>507.5744947461517</v>
+        <v>507.5744947461513</v>
       </c>
       <c r="Q44" t="n">
-        <v>507.5744947461517</v>
+        <v>507.5744947461513</v>
       </c>
       <c r="R44" t="n">
-        <v>414.3724340922683</v>
+        <v>507.5744947461513</v>
       </c>
       <c r="S44" t="n">
-        <v>286.1970566311189</v>
+        <v>507.5744947461513</v>
       </c>
       <c r="T44" t="n">
-        <v>286.1970566311189</v>
+        <v>507.5744947461513</v>
       </c>
       <c r="U44" t="n">
-        <v>266.5022448172219</v>
+        <v>507.5744947461513</v>
       </c>
       <c r="V44" t="n">
-        <v>266.5022448172219</v>
+        <v>379.399117285002</v>
       </c>
       <c r="W44" t="n">
-        <v>266.5022448172219</v>
+        <v>379.399117285002</v>
       </c>
       <c r="X44" t="n">
-        <v>266.5022448172219</v>
+        <v>379.399117285002</v>
       </c>
       <c r="Y44" t="n">
-        <v>266.5022448172219</v>
+        <v>379.399117285002</v>
       </c>
     </row>
     <row r="45">
@@ -7703,22 +7703,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>392.3380369582399</v>
+        <v>10.15148989492303</v>
       </c>
       <c r="C45" t="n">
-        <v>335.2999168376215</v>
+        <v>10.15148989492303</v>
       </c>
       <c r="D45" t="n">
-        <v>335.2999168376215</v>
+        <v>10.15148989492303</v>
       </c>
       <c r="E45" t="n">
-        <v>234.2433485935853</v>
+        <v>10.15148989492303</v>
       </c>
       <c r="F45" t="n">
-        <v>145.8896773818896</v>
+        <v>10.15148989492303</v>
       </c>
       <c r="G45" t="n">
-        <v>65.33973872592439</v>
+        <v>10.15148989492303</v>
       </c>
       <c r="H45" t="n">
         <v>10.15148989492303</v>
@@ -7730,49 +7730,49 @@
         <v>10.15148989492303</v>
       </c>
       <c r="K45" t="n">
-        <v>135.5090499527604</v>
+        <v>10.15148989492303</v>
       </c>
       <c r="L45" t="n">
-        <v>261.133737402433</v>
+        <v>10.15148989492303</v>
       </c>
       <c r="M45" t="n">
-        <v>386.7584248521055</v>
+        <v>61.30587388380474</v>
       </c>
       <c r="N45" t="n">
-        <v>507.5744947461517</v>
+        <v>186.9305613334772</v>
       </c>
       <c r="O45" t="n">
-        <v>507.5744947461517</v>
+        <v>312.5552487831496</v>
       </c>
       <c r="P45" t="n">
-        <v>507.5744947461517</v>
+        <v>438.1799362328221</v>
       </c>
       <c r="Q45" t="n">
-        <v>507.5744947461517</v>
+        <v>507.5744947461513</v>
       </c>
       <c r="R45" t="n">
-        <v>507.5744947461517</v>
+        <v>507.5744947461513</v>
       </c>
       <c r="S45" t="n">
-        <v>392.3380369582399</v>
+        <v>392.3380369582396</v>
       </c>
       <c r="T45" t="n">
-        <v>392.3380369582399</v>
+        <v>266.5022448172217</v>
       </c>
       <c r="U45" t="n">
-        <v>392.3380369582399</v>
+        <v>138.3268673560724</v>
       </c>
       <c r="V45" t="n">
-        <v>392.3380369582399</v>
+        <v>10.15148989492303</v>
       </c>
       <c r="W45" t="n">
-        <v>392.3380369582399</v>
+        <v>10.15148989492303</v>
       </c>
       <c r="X45" t="n">
-        <v>392.3380369582399</v>
+        <v>10.15148989492303</v>
       </c>
       <c r="Y45" t="n">
-        <v>392.3380369582399</v>
+        <v>10.15148989492303</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>362.3045154854372</v>
+        <v>108.991284878209</v>
       </c>
       <c r="C46" t="n">
-        <v>362.3045154854372</v>
+        <v>108.991284878209</v>
       </c>
       <c r="D46" t="n">
-        <v>362.3045154854372</v>
+        <v>108.991284878209</v>
       </c>
       <c r="E46" t="n">
-        <v>362.3045154854372</v>
+        <v>108.991284878209</v>
       </c>
       <c r="F46" t="n">
-        <v>362.3045154854372</v>
+        <v>108.991284878209</v>
       </c>
       <c r="G46" t="n">
-        <v>250.7975443090193</v>
+        <v>108.991284878209</v>
       </c>
       <c r="H46" t="n">
-        <v>145.1126002548431</v>
+        <v>108.991284878209</v>
       </c>
       <c r="I46" t="n">
-        <v>46.27280527155703</v>
+        <v>10.15148989492303</v>
       </c>
       <c r="J46" t="n">
         <v>10.15148989492303</v>
       </c>
       <c r="K46" t="n">
-        <v>45.12778010216607</v>
+        <v>45.12778010216611</v>
       </c>
       <c r="L46" t="n">
-        <v>129.4649922247461</v>
+        <v>129.4649922247462</v>
       </c>
       <c r="M46" t="n">
-        <v>225.6761175318354</v>
+        <v>225.6761175318355</v>
       </c>
       <c r="N46" t="n">
-        <v>326.3900553021388</v>
+        <v>326.3900553021389</v>
       </c>
       <c r="O46" t="n">
-        <v>407.7524190519051</v>
+        <v>407.7524190519052</v>
       </c>
       <c r="P46" t="n">
-        <v>462.0812798390168</v>
+        <v>462.0812798390169</v>
       </c>
       <c r="Q46" t="n">
-        <v>462.0812798390168</v>
+        <v>433.2297996795328</v>
       </c>
       <c r="R46" t="n">
-        <v>462.0812798390168</v>
+        <v>365.3420398005077</v>
       </c>
       <c r="S46" t="n">
-        <v>462.0812798390168</v>
+        <v>237.1666623393584</v>
       </c>
       <c r="T46" t="n">
-        <v>462.0812798390168</v>
+        <v>108.991284878209</v>
       </c>
       <c r="U46" t="n">
-        <v>462.0812798390168</v>
+        <v>108.991284878209</v>
       </c>
       <c r="V46" t="n">
-        <v>462.0812798390168</v>
+        <v>108.991284878209</v>
       </c>
       <c r="W46" t="n">
-        <v>462.0812798390168</v>
+        <v>108.991284878209</v>
       </c>
       <c r="X46" t="n">
-        <v>362.3045154854372</v>
+        <v>108.991284878209</v>
       </c>
       <c r="Y46" t="n">
-        <v>362.3045154854372</v>
+        <v>108.991284878209</v>
       </c>
     </row>
   </sheetData>
@@ -9172,13 +9172,13 @@
         <v>331.585803656494</v>
       </c>
       <c r="M17" t="n">
-        <v>230.3462332272727</v>
+        <v>326.1656219137795</v>
       </c>
       <c r="N17" t="n">
-        <v>230.7952494149045</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O17" t="n">
-        <v>325.9176001081935</v>
+        <v>231.4803972400004</v>
       </c>
       <c r="P17" t="n">
         <v>321.7987081714826</v>
@@ -9245,25 +9245,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>233.6608276608658</v>
       </c>
       <c r="L18" t="n">
-        <v>234.3737684663809</v>
+        <v>234.373768466381</v>
       </c>
       <c r="M18" t="n">
-        <v>234.081932156545</v>
+        <v>237.9534226085251</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>153.1940966680325</v>
       </c>
       <c r="O18" t="n">
-        <v>238.4156331309512</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>229.793796100837</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9403,19 +9403,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>349.8870801611084</v>
+        <v>349.8870801611085</v>
       </c>
       <c r="M20" t="n">
         <v>344.466898418394</v>
       </c>
       <c r="N20" t="n">
-        <v>343.5337287877121</v>
+        <v>343.5337287877122</v>
       </c>
       <c r="O20" t="n">
-        <v>339.6079406454899</v>
+        <v>235.5523791193058</v>
       </c>
       <c r="P20" t="n">
         <v>231.2329957552695</v>
@@ -9482,22 +9482,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>247.3511681981622</v>
+        <v>251.9621041654803</v>
       </c>
       <c r="L21" t="n">
-        <v>252.6750449709954</v>
+        <v>252.6750449709955</v>
       </c>
       <c r="M21" t="n">
-        <v>256.2546991131395</v>
+        <v>256.2546991131396</v>
       </c>
       <c r="N21" t="n">
-        <v>245.4623772744545</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>243.4841366381335</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -9640,7 +9640,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L23" t="n">
         <v>417.6612145504504</v>
@@ -9722,16 +9722,16 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O24" t="n">
-        <v>369.031319612638</v>
+        <v>360.302996258564</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
@@ -9877,7 +9877,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
@@ -9959,19 +9959,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>229.6373335557741</v>
       </c>
       <c r="M27" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>185.8815939223662</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10114,7 +10114,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
@@ -10202,10 +10202,10 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>372.3560009609923</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O30" t="n">
-        <v>382.6009056104135</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -10433,19 +10433,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>185.3423563661624</v>
       </c>
       <c r="M33" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>371.3463732493024</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -10588,10 +10588,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
         <v>449.5135334928325</v>
@@ -10670,10 +10670,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N36" t="n">
         <v>372.3560009609923</v>
@@ -10682,7 +10682,7 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
-        <v>303.8835549304717</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10913,16 +10913,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
-        <v>372.3560009609923</v>
+        <v>301.2485028631349</v>
       </c>
       <c r="O39" t="n">
-        <v>185.8815939223662</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11062,19 +11062,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>380.9613151611396</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M41" t="n">
-        <v>279.108960388428</v>
+        <v>320.248299053396</v>
       </c>
       <c r="N41" t="n">
         <v>374.6079637877432</v>
       </c>
       <c r="O41" t="n">
-        <v>375.2931116128391</v>
+        <v>375.293111612839</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11144,22 +11144,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>283.7492799710265</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>287.3289341131706</v>
+        <v>211.3669598495591</v>
       </c>
       <c r="N42" t="n">
-        <v>270.6701516607017</v>
+        <v>276.5366122744856</v>
       </c>
       <c r="O42" t="n">
-        <v>287.7911446355968</v>
+        <v>287.7911446355967</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>279.1693076054825</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11302,19 +11302,19 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>235.7664149699872</v>
+        <v>362.6600386565251</v>
       </c>
       <c r="M44" t="n">
-        <v>284.3851915595053</v>
+        <v>357.2398569138106</v>
       </c>
       <c r="N44" t="n">
         <v>356.3066872831288</v>
       </c>
       <c r="O44" t="n">
-        <v>356.9918351082247</v>
+        <v>247.8092584835944</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11378,25 +11378,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>265.4480034664121</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>269.0276576085562</v>
+        <v>193.8051288602827</v>
       </c>
       <c r="N45" t="n">
-        <v>253.3781463197436</v>
+        <v>258.2353357698711</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>269.4898681309822</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>260.8680311008681</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23734,25 +23734,25 @@
         <v>337.982875940212</v>
       </c>
       <c r="C17" t="n">
-        <v>224.7025373612323</v>
+        <v>320.521926047739</v>
       </c>
       <c r="D17" t="n">
         <v>309.9320758974144</v>
       </c>
       <c r="E17" t="n">
-        <v>337.1794043489932</v>
+        <v>252.781686793918</v>
       </c>
       <c r="F17" t="n">
-        <v>266.3056913319361</v>
+        <v>362.1250800184429</v>
       </c>
       <c r="G17" t="n">
-        <v>370.5517717918665</v>
+        <v>274.7323831053597</v>
       </c>
       <c r="H17" t="n">
-        <v>294.7238363924986</v>
+        <v>198.9044477059918</v>
       </c>
       <c r="I17" t="n">
-        <v>81.3272062920623</v>
+        <v>69.90553516063055</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,16 +23782,16 @@
         <v>105.1181522178811</v>
       </c>
       <c r="S17" t="n">
-        <v>164.2691038629768</v>
+        <v>164.2691038629767</v>
       </c>
       <c r="T17" t="n">
         <v>178.3448838408628</v>
       </c>
       <c r="U17" t="n">
-        <v>206.594687184568</v>
+        <v>206.5946871845679</v>
       </c>
       <c r="V17" t="n">
-        <v>283.0012927468664</v>
+        <v>283.0012927468663</v>
       </c>
       <c r="W17" t="n">
         <v>304.4900029941444</v>
@@ -23800,7 +23800,7 @@
         <v>324.9801349552005</v>
       </c>
       <c r="Y17" t="n">
-        <v>245.6675842462784</v>
+        <v>341.486972932785</v>
       </c>
     </row>
     <row r="18">
@@ -23810,10 +23810,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>41.61764724253813</v>
+        <v>25.96282924009196</v>
       </c>
       <c r="C18" t="n">
-        <v>127.9575332650472</v>
+        <v>32.13814457854036</v>
       </c>
       <c r="D18" t="n">
         <v>102.6940998413702</v>
@@ -23822,16 +23822,16 @@
         <v>112.8941147321324</v>
       </c>
       <c r="F18" t="n">
-        <v>100.3182466701153</v>
+        <v>68.10056029784997</v>
       </c>
       <c r="G18" t="n">
-        <v>92.5925514399421</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>67.48447851322793</v>
+        <v>67.48447851322788</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>44.6456671281465</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23861,19 +23861,19 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>31.11281669406254</v>
+        <v>126.9322053805692</v>
       </c>
       <c r="T18" t="n">
-        <v>155.4137629715531</v>
+        <v>155.413762971553</v>
       </c>
       <c r="U18" t="n">
-        <v>181.1904163577063</v>
+        <v>181.1904163577062</v>
       </c>
       <c r="V18" t="n">
-        <v>92.23023273964999</v>
+        <v>188.0496214261567</v>
       </c>
       <c r="W18" t="n">
-        <v>206.9440174376511</v>
+        <v>206.944017437651</v>
       </c>
       <c r="X18" t="n">
         <v>161.0220194802089</v>
@@ -23889,13 +23889,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>135.0810144586688</v>
+        <v>135.0810144586687</v>
       </c>
       <c r="C19" t="n">
         <v>122.4958553753593</v>
       </c>
       <c r="D19" t="n">
-        <v>8.045118608437079</v>
+        <v>8.045118608436979</v>
       </c>
       <c r="E19" t="n">
         <v>101.6829969233006</v>
@@ -23910,10 +23910,10 @@
         <v>117.476206784171</v>
       </c>
       <c r="I19" t="n">
-        <v>26.30179164891467</v>
+        <v>110.6995092039897</v>
       </c>
       <c r="J19" t="n">
-        <v>48.60821439340424</v>
+        <v>48.6082143934042</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23934,31 +23934,31 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>41.41107752842585</v>
+        <v>41.41107752842581</v>
       </c>
       <c r="R19" t="n">
-        <v>132.5424256539009</v>
+        <v>36.72303696739412</v>
       </c>
       <c r="S19" t="n">
-        <v>179.2656323137037</v>
+        <v>94.86791475862854</v>
       </c>
       <c r="T19" t="n">
-        <v>87.37523501850622</v>
+        <v>183.1946237050129</v>
       </c>
       <c r="U19" t="n">
-        <v>145.7486749467156</v>
+        <v>241.5680636332223</v>
       </c>
       <c r="V19" t="n">
-        <v>207.3866776005595</v>
+        <v>111.5672889140526</v>
       </c>
       <c r="W19" t="n">
-        <v>241.7720326133225</v>
+        <v>241.7720326133224</v>
       </c>
       <c r="X19" t="n">
         <v>180.9586896657686</v>
       </c>
       <c r="Y19" t="n">
-        <v>173.8336876288263</v>
+        <v>173.8336876288262</v>
       </c>
     </row>
     <row r="20">
@@ -23968,25 +23968,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>325.9052658563587</v>
+        <v>211.7846006652374</v>
       </c>
       <c r="C20" t="n">
-        <v>308.4443159638857</v>
+        <v>194.3236507727644</v>
       </c>
       <c r="D20" t="n">
-        <v>297.8544658135611</v>
+        <v>183.7338006224398</v>
       </c>
       <c r="E20" t="n">
-        <v>210.9811290740187</v>
+        <v>317.6248544988281</v>
       </c>
       <c r="F20" t="n">
-        <v>235.9268047434684</v>
+        <v>350.0474699345895</v>
       </c>
       <c r="G20" t="n">
-        <v>358.4741617080132</v>
+        <v>358.4741617080131</v>
       </c>
       <c r="H20" t="n">
-        <v>282.6462263086453</v>
+        <v>282.6462263086452</v>
       </c>
       <c r="I20" t="n">
         <v>153.647313763284</v>
@@ -24016,25 +24016,25 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>93.04054213402782</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>152.1914937791235</v>
+        <v>152.1914937791234</v>
       </c>
       <c r="T20" t="n">
-        <v>166.2672737570095</v>
+        <v>166.2672737570094</v>
       </c>
       <c r="U20" t="n">
         <v>194.5170771007146</v>
       </c>
       <c r="V20" t="n">
-        <v>170.4062007626735</v>
+        <v>270.923682663013</v>
       </c>
       <c r="W20" t="n">
         <v>292.4123929102911</v>
       </c>
       <c r="X20" t="n">
-        <v>198.781859680226</v>
+        <v>312.9025248713471</v>
       </c>
       <c r="Y20" t="n">
         <v>329.4093628489317</v>
@@ -24047,28 +24047,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>109.7046078427454</v>
       </c>
       <c r="C21" t="n">
-        <v>115.8799231811939</v>
+        <v>115.8799231811938</v>
       </c>
       <c r="D21" t="n">
-        <v>90.61648975751689</v>
+        <v>90.61648975751685</v>
       </c>
       <c r="E21" t="n">
-        <v>100.8165046482791</v>
+        <v>100.816504648279</v>
       </c>
       <c r="F21" t="n">
-        <v>88.24063658626201</v>
+        <v>68.23809604201116</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>55.4068684293746</v>
+        <v>55.40686842937455</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>32.56805704429317</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24095,19 +24095,19 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>43.32925834552127</v>
+        <v>43.32925834552123</v>
       </c>
       <c r="S21" t="n">
-        <v>0.7339301055947516</v>
+        <v>0.7339301055946379</v>
       </c>
       <c r="T21" t="n">
-        <v>143.3361528876997</v>
+        <v>29.21548769657844</v>
       </c>
       <c r="U21" t="n">
-        <v>63.14160023439854</v>
+        <v>169.1128062738529</v>
       </c>
       <c r="V21" t="n">
-        <v>175.9720113423034</v>
+        <v>61.85134615118207</v>
       </c>
       <c r="W21" t="n">
         <v>194.8664073537977</v>
@@ -24129,28 +24129,28 @@
         <v>123.0034043748154</v>
       </c>
       <c r="C22" t="n">
-        <v>110.418245291506</v>
+        <v>110.4182452915059</v>
       </c>
       <c r="D22" t="n">
-        <v>91.78689721109049</v>
+        <v>91.78689721109045</v>
       </c>
       <c r="E22" t="n">
-        <v>89.60538683944731</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>88.59247221580938</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>111.1624035513369</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>105.3985967003177</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>98.62189912013642</v>
+        <v>98.62189912013638</v>
       </c>
       <c r="J22" t="n">
-        <v>36.53060430955091</v>
+        <v>17.74345358733106</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24171,16 +24171,16 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>29.33346744457252</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>19.94733366970807</v>
+        <v>120.4648155700476</v>
       </c>
       <c r="S22" t="n">
-        <v>53.06735703872918</v>
+        <v>167.1880222298503</v>
       </c>
       <c r="T22" t="n">
-        <v>56.99634843003842</v>
+        <v>171.1170136211596</v>
       </c>
       <c r="U22" t="n">
         <v>229.490453549369</v>
@@ -24192,10 +24192,10 @@
         <v>229.6944225294691</v>
       </c>
       <c r="X22" t="n">
-        <v>168.8810795819153</v>
+        <v>168.8810795819152</v>
       </c>
       <c r="Y22" t="n">
-        <v>47.63541235385172</v>
+        <v>161.7560775449729</v>
       </c>
     </row>
     <row r="23">
@@ -24205,13 +24205,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>52.32291993440646</v>
+        <v>293.3372088120655</v>
       </c>
       <c r="C23" t="n">
         <v>275.8762589195925</v>
       </c>
       <c r="D23" t="n">
-        <v>24.27211989160884</v>
+        <v>265.2864087692679</v>
       </c>
       <c r="E23" t="n">
         <v>292.5337372208467</v>
@@ -24256,22 +24256,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>119.6234367348303</v>
       </c>
       <c r="T23" t="n">
-        <v>133.6992167127163</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>129.7595562375444</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>238.3556256187198</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>259.8443358659979</v>
+        <v>18.83004698833889</v>
       </c>
       <c r="X23" t="n">
-        <v>39.32017894939491</v>
+        <v>180.496851905886</v>
       </c>
       <c r="Y23" t="n">
         <v>296.8413058046385</v>
@@ -24284,16 +24284,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>77.13655079845226</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>83.31186613690066</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>6.374463043099055</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>68.24844760398587</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -24338,22 +24338,22 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>110.7680958434065</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>143.4039542980102</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>162.2983503095045</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>40.13711881832965</v>
       </c>
     </row>
     <row r="25">
@@ -24366,7 +24366,7 @@
         <v>90.43534733052222</v>
       </c>
       <c r="C25" t="n">
-        <v>64.32269212124974</v>
+        <v>77.85018824721276</v>
       </c>
       <c r="D25" t="n">
         <v>59.21884016679728</v>
@@ -24375,16 +24375,16 @@
         <v>57.03732979515409</v>
       </c>
       <c r="F25" t="n">
-        <v>56.02441517151617</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>78.59434650704368</v>
       </c>
       <c r="H25" t="n">
-        <v>72.8305396560245</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>66.05384207584321</v>
       </c>
       <c r="J25" t="n">
         <v>3.962547265257697</v>
@@ -24411,25 +24411,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>87.89675852575441</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>134.6199651855572</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>196.9223965050758</v>
       </c>
       <c r="V25" t="n">
-        <v>162.7410104724129</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>197.1263654851759</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>136.3130225376221</v>
+        <v>126.014894904558</v>
       </c>
       <c r="Y25" t="n">
         <v>129.1880205006797</v>
@@ -24448,19 +24448,19 @@
         <v>275.8762589195925</v>
       </c>
       <c r="D26" t="n">
-        <v>265.2864087692679</v>
+        <v>24.27211989160884</v>
       </c>
       <c r="E26" t="n">
-        <v>51.51944834318766</v>
+        <v>292.5337372208467</v>
       </c>
       <c r="F26" t="n">
-        <v>317.4794128902964</v>
+        <v>117.5023918167419</v>
       </c>
       <c r="G26" t="n">
-        <v>325.90610466372</v>
+        <v>84.89181578606093</v>
       </c>
       <c r="H26" t="n">
-        <v>9.063880386693029</v>
+        <v>250.0781692643521</v>
       </c>
       <c r="I26" t="n">
         <v>121.0792567189908</v>
@@ -24493,22 +24493,22 @@
         <v>60.4724850897346</v>
       </c>
       <c r="S26" t="n">
-        <v>119.6234367348303</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>133.6992167127163</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>161.9490200564214</v>
       </c>
       <c r="V26" t="n">
-        <v>26.07023997527784</v>
+        <v>238.3556256187198</v>
       </c>
       <c r="W26" t="n">
         <v>259.8443358659979</v>
       </c>
       <c r="X26" t="n">
-        <v>39.32017894939491</v>
+        <v>280.334467827054</v>
       </c>
       <c r="Y26" t="n">
         <v>296.8413058046385</v>
@@ -24524,22 +24524,22 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>28.66215989918712</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>58.04843271322368</v>
       </c>
       <c r="E27" t="n">
         <v>68.24844760398587</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>55.6725795419688</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>47.94688431179556</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>22.83881138508139</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -24569,7 +24569,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.76120130122806</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -24581,7 +24581,7 @@
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>143.4039542980102</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
@@ -24590,7 +24590,7 @@
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>116.2860629258893</v>
+        <v>93.08426786978902</v>
       </c>
     </row>
     <row r="28">
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>90.43534733052222</v>
       </c>
       <c r="C28" t="n">
         <v>77.85018824721276</v>
@@ -24609,10 +24609,10 @@
         <v>59.21884016679728</v>
       </c>
       <c r="E28" t="n">
-        <v>57.03732979515409</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>56.02441517151617</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>78.59434650704368</v>
@@ -24621,7 +24621,7 @@
         <v>72.8305396560245</v>
       </c>
       <c r="I28" t="n">
-        <v>66.05384207584321</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>3.962547265257697</v>
@@ -24651,22 +24651,22 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>134.6199651855572</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>138.5489565768664</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>97.29831480146291</v>
       </c>
       <c r="V28" t="n">
         <v>162.7410104724129</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>197.1263654851759</v>
       </c>
       <c r="X28" t="n">
-        <v>71.12447538909038</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>129.1880205006797</v>
@@ -24685,19 +24685,19 @@
         <v>275.8762589195925</v>
       </c>
       <c r="D29" t="n">
-        <v>265.2864087692679</v>
+        <v>247.1727249282767</v>
       </c>
       <c r="E29" t="n">
-        <v>51.51944834318766</v>
+        <v>292.5337372208467</v>
       </c>
       <c r="F29" t="n">
-        <v>76.46512401263732</v>
+        <v>317.4794128902964</v>
       </c>
       <c r="G29" t="n">
-        <v>113.6207190202779</v>
+        <v>325.90610466372</v>
       </c>
       <c r="H29" t="n">
-        <v>250.0781692643521</v>
+        <v>9.063880386693029</v>
       </c>
       <c r="I29" t="n">
         <v>121.0792567189908</v>
@@ -24727,13 +24727,13 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>60.4724850897346</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>119.6234367348303</v>
       </c>
       <c r="T29" t="n">
-        <v>133.6992167127163</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>161.9490200564214</v>
@@ -24745,7 +24745,7 @@
         <v>259.8443358659979</v>
       </c>
       <c r="X29" t="n">
-        <v>280.334467827054</v>
+        <v>39.32017894939491</v>
       </c>
       <c r="Y29" t="n">
         <v>55.82701692697947</v>
@@ -24767,7 +24767,7 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>68.24844760398587</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -24809,7 +24809,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>82.28653825242274</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -24818,13 +24818,13 @@
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>143.4039542980102</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>144.9482228250764</v>
+        <v>162.2983503095045</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>112.0157361651452</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -24837,19 +24837,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>90.43534733052222</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>77.85018824721276</v>
       </c>
       <c r="D31" t="n">
-        <v>59.21884016679728</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>57.03732979515409</v>
       </c>
       <c r="F31" t="n">
-        <v>56.02441517151617</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>78.59434650704368</v>
@@ -24858,7 +24858,7 @@
         <v>72.8305396560245</v>
       </c>
       <c r="I31" t="n">
-        <v>66.05384207584321</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,25 +24888,25 @@
         <v>87.89675852575441</v>
       </c>
       <c r="S31" t="n">
-        <v>134.6199651855572</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>138.5489565768664</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>196.9223965050758</v>
       </c>
       <c r="V31" t="n">
         <v>162.7410104724129</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>197.1263654851759</v>
       </c>
       <c r="X31" t="n">
-        <v>136.3130225376221</v>
+        <v>38.24658523873552</v>
       </c>
       <c r="Y31" t="n">
-        <v>28.17887133799549</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24922,16 +24922,16 @@
         <v>12.02315865685205</v>
       </c>
       <c r="D32" t="n">
-        <v>1.433308506527453</v>
+        <v>242.4475973841865</v>
       </c>
       <c r="E32" t="n">
-        <v>28.68063695810628</v>
+        <v>269.6949258357653</v>
       </c>
       <c r="F32" t="n">
         <v>294.640601505215</v>
       </c>
       <c r="G32" t="n">
-        <v>303.0672932786386</v>
+        <v>86.77314323845408</v>
       </c>
       <c r="H32" t="n">
         <v>227.2393578792707</v>
@@ -24964,7 +24964,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>37.63367370465322</v>
       </c>
       <c r="S32" t="n">
         <v>96.78462534974888</v>
@@ -24976,16 +24976,16 @@
         <v>139.11020867134</v>
       </c>
       <c r="V32" t="n">
-        <v>40.86510229484972</v>
+        <v>215.5168142336385</v>
       </c>
       <c r="W32" t="n">
-        <v>237.0055244809166</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>257.4956564419726</v>
       </c>
       <c r="Y32" t="n">
-        <v>274.0024944195571</v>
+        <v>32.98820554189808</v>
       </c>
     </row>
     <row r="33">
@@ -25001,7 +25001,7 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>26.09606403470491</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -25049,7 +25049,7 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>26.09606403470506</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>67.59653594544083</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>55.01137686213137</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>36.38002878171589</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>34.19851841007271</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>33.18560378643478</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>55.7555351219623</v>
       </c>
       <c r="H34" t="n">
-        <v>22.72637616150047</v>
+        <v>49.99172827094311</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>43.21503069076182</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>65.05794714067302</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>115.710145191785</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>47.98353089263482</v>
       </c>
       <c r="V34" t="n">
         <v>139.9021990873316</v>
@@ -25140,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>113.4742111525407</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>106.3492091155983</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25153,22 +25153,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>282.5760075108374</v>
+        <v>56.87075730722808</v>
       </c>
       <c r="C35" t="n">
         <v>265.1150576183644</v>
       </c>
       <c r="D35" t="n">
-        <v>42.23982182459781</v>
+        <v>254.5252074680398</v>
       </c>
       <c r="E35" t="n">
-        <v>40.75824704195958</v>
+        <v>281.7725359196186</v>
       </c>
       <c r="F35" t="n">
-        <v>65.70392271140923</v>
+        <v>306.7182115890683</v>
       </c>
       <c r="G35" t="n">
-        <v>74.13061448483285</v>
+        <v>315.1449033624919</v>
       </c>
       <c r="H35" t="n">
         <v>239.316967963124</v>
@@ -25213,16 +25213,16 @@
         <v>151.1878187551933</v>
       </c>
       <c r="V35" t="n">
-        <v>227.5944243174918</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>249.0831345647699</v>
       </c>
       <c r="X35" t="n">
-        <v>269.5732665258259</v>
+        <v>28.55897764816683</v>
       </c>
       <c r="Y35" t="n">
-        <v>286.0801045034104</v>
+        <v>45.06581562575138</v>
       </c>
     </row>
     <row r="36">
@@ -25232,13 +25232,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>66.37534949722421</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>64.29242676160798</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>47.28723141199562</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -25283,10 +25283,10 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>71.52533695119469</v>
       </c>
       <c r="T36" t="n">
-        <v>100.0068945421785</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -25301,7 +25301,7 @@
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>16.72275108539573</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -25314,16 +25314,16 @@
         <v>79.67414602929416</v>
       </c>
       <c r="C37" t="n">
-        <v>67.0889869459847</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>48.45763886556922</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>46.27612849392604</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>45.26321387028811</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25359,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>77.13555722452635</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>123.8587638843291</v>
       </c>
       <c r="T37" t="n">
         <v>127.7877552756384</v>
       </c>
       <c r="U37" t="n">
-        <v>8.781311894590203</v>
+        <v>186.1611952038477</v>
       </c>
       <c r="V37" t="n">
         <v>151.9798091711849</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>136.4350909019772</v>
       </c>
       <c r="X37" t="n">
-        <v>125.551821236394</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>118.4268191994517</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25393,22 +25393,22 @@
         <v>315.1440645551306</v>
       </c>
       <c r="C38" t="n">
-        <v>297.6831146626577</v>
+        <v>297.6831146626576</v>
       </c>
       <c r="D38" t="n">
         <v>287.093264512333</v>
       </c>
       <c r="E38" t="n">
-        <v>73.32630408625278</v>
+        <v>314.3405929639118</v>
       </c>
       <c r="F38" t="n">
-        <v>268.4311754678149</v>
+        <v>339.2862686333615</v>
       </c>
       <c r="G38" t="n">
         <v>347.7129604067851</v>
       </c>
       <c r="H38" t="n">
-        <v>30.87073612975814</v>
+        <v>271.8850250074172</v>
       </c>
       <c r="I38" t="n">
         <v>142.886112462056</v>
@@ -25438,28 +25438,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>82.27934083279976</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>141.4302924778954</v>
       </c>
       <c r="T38" t="n">
         <v>155.5060724557814</v>
       </c>
       <c r="U38" t="n">
-        <v>183.7558757994866</v>
+        <v>183.7558757994865</v>
       </c>
       <c r="V38" t="n">
-        <v>19.14819248412596</v>
+        <v>130.1564365511427</v>
       </c>
       <c r="W38" t="n">
-        <v>281.6511916090631</v>
+        <v>40.63690273140401</v>
       </c>
       <c r="X38" t="n">
-        <v>302.1413235701191</v>
+        <v>61.12703469246003</v>
       </c>
       <c r="Y38" t="n">
-        <v>318.6481615477037</v>
+        <v>77.63387267004458</v>
       </c>
     </row>
     <row r="39">
@@ -25469,22 +25469,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>98.94340654151742</v>
+        <v>98.94340654151738</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>105.1187218799658</v>
       </c>
       <c r="D39" t="n">
-        <v>79.85528845628883</v>
+        <v>79.85528845628879</v>
       </c>
       <c r="E39" t="n">
-        <v>90.05530334705102</v>
+        <v>90.05530334705098</v>
       </c>
       <c r="F39" t="n">
-        <v>77.47943528503396</v>
+        <v>77.47943528503392</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>69.75374005486067</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -25529,16 +25529,16 @@
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>82.90075622214175</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>46.12121295626912</v>
       </c>
       <c r="X39" t="n">
-        <v>138.1832080951276</v>
+        <v>138.1832080951275</v>
       </c>
       <c r="Y39" t="n">
-        <v>138.0929186689544</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -25548,31 +25548,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>112.2422030735874</v>
+        <v>112.2422030735873</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>81.02569590986243</v>
+        <v>81.02569590986239</v>
       </c>
       <c r="E40" t="n">
-        <v>78.84418553821925</v>
+        <v>78.84418553821921</v>
       </c>
       <c r="F40" t="n">
-        <v>46.48259023591771</v>
+        <v>77.83127091458128</v>
       </c>
       <c r="G40" t="n">
         <v>100.4012022501088</v>
       </c>
       <c r="H40" t="n">
-        <v>94.63739539908966</v>
+        <v>94.63739539908961</v>
       </c>
       <c r="I40" t="n">
-        <v>87.86069781890836</v>
+        <v>84.63306242710013</v>
       </c>
       <c r="J40" t="n">
-        <v>25.76940300832285</v>
+        <v>25.76940300832281</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25593,22 +25593,22 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>18.57226614334446</v>
+        <v>18.57226614334442</v>
       </c>
       <c r="R40" t="n">
-        <v>109.7036142688196</v>
+        <v>109.7036142688195</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>156.4268209286223</v>
       </c>
       <c r="T40" t="n">
-        <v>160.3558123199316</v>
+        <v>160.3558123199315</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>184.5478662154781</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>218.9332212282411</v>
@@ -25617,7 +25617,7 @@
         <v>158.1198782806872</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.9948762437449</v>
+        <v>150.9948762437448</v>
       </c>
     </row>
     <row r="41">
@@ -25627,22 +25627,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>325.1347637696755</v>
+        <v>325.1347637696754</v>
       </c>
       <c r="C41" t="n">
         <v>307.6738138772024</v>
       </c>
       <c r="D41" t="n">
-        <v>297.0839637268779</v>
+        <v>297.0839637268778</v>
       </c>
       <c r="E41" t="n">
-        <v>179.1363919873044</v>
+        <v>324.3312921784566</v>
       </c>
       <c r="F41" t="n">
-        <v>204.082067656754</v>
+        <v>349.2769678479063</v>
       </c>
       <c r="G41" t="n">
-        <v>357.70365962133</v>
+        <v>357.7036596213299</v>
       </c>
       <c r="H41" t="n">
         <v>136.6808240308097</v>
@@ -25675,13 +25675,13 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>92.27004004734457</v>
+        <v>92.27004004734452</v>
       </c>
       <c r="S41" t="n">
-        <v>23.53332360407329</v>
+        <v>6.226091501287897</v>
       </c>
       <c r="T41" t="n">
-        <v>165.4967716703262</v>
+        <v>20.30187147917394</v>
       </c>
       <c r="U41" t="n">
         <v>193.7465750140314</v>
@@ -25690,7 +25690,7 @@
         <v>270.1531805763298</v>
       </c>
       <c r="W41" t="n">
-        <v>291.6418908236079</v>
+        <v>163.7542227352409</v>
       </c>
       <c r="X41" t="n">
         <v>312.1320227846639</v>
@@ -25706,28 +25706,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>108.9341057560622</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>115.1094210945106</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>89.84598767083364</v>
+        <v>89.84598767083359</v>
       </c>
       <c r="E42" t="n">
-        <v>100.0460025615958</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>87.47013449957876</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>79.74443926940552</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>54.63636634269135</v>
+        <v>14.26565581963027</v>
       </c>
       <c r="I42" t="n">
-        <v>31.79755495760996</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25754,25 +25754,25 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>42.55875625883802</v>
+        <v>42.55875625883797</v>
       </c>
       <c r="S42" t="n">
         <v>114.0840932100327</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>142.5656508010164</v>
       </c>
       <c r="U42" t="n">
-        <v>23.14740399601737</v>
+        <v>168.3423041871696</v>
       </c>
       <c r="V42" t="n">
-        <v>30.00660906446782</v>
+        <v>175.2015092556201</v>
       </c>
       <c r="W42" t="n">
-        <v>63.5789877886117</v>
+        <v>194.0959052671145</v>
       </c>
       <c r="X42" t="n">
-        <v>148.1739073096724</v>
+        <v>148.1739073096723</v>
       </c>
       <c r="Y42" t="n">
         <v>148.0836178834992</v>
@@ -25785,31 +25785,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>122.2329022881322</v>
+        <v>122.2329022881321</v>
       </c>
       <c r="C43" t="n">
         <v>109.6477432048227</v>
       </c>
       <c r="D43" t="n">
-        <v>91.01639512440724</v>
+        <v>91.0163951244072</v>
       </c>
       <c r="E43" t="n">
-        <v>88.83488475276405</v>
+        <v>88.83488475276401</v>
       </c>
       <c r="F43" t="n">
-        <v>87.82197012912613</v>
+        <v>87.82197012912609</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>110.3919014646536</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>104.6280946136344</v>
       </c>
       <c r="I43" t="n">
-        <v>10.65580125824083</v>
+        <v>86.02560556225708</v>
       </c>
       <c r="J43" t="n">
-        <v>35.76010222286766</v>
+        <v>35.76010222286762</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25830,31 +25830,31 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>28.56296535788927</v>
+        <v>28.56296535788923</v>
       </c>
       <c r="R43" t="n">
-        <v>119.6943134833644</v>
+        <v>119.6943134833643</v>
       </c>
       <c r="S43" t="n">
-        <v>166.4175201431671</v>
+        <v>21.22261995201484</v>
       </c>
       <c r="T43" t="n">
-        <v>170.3465115344764</v>
+        <v>170.3465115344763</v>
       </c>
       <c r="U43" t="n">
-        <v>228.7199514626858</v>
+        <v>228.7199514626857</v>
       </c>
       <c r="V43" t="n">
         <v>194.5385654300229</v>
       </c>
       <c r="W43" t="n">
-        <v>228.9239204427859</v>
+        <v>83.72902025163359</v>
       </c>
       <c r="X43" t="n">
-        <v>22.91567730407971</v>
+        <v>22.91567730407974</v>
       </c>
       <c r="Y43" t="n">
-        <v>160.9855754582897</v>
+        <v>160.9855754582896</v>
       </c>
     </row>
     <row r="44">
@@ -25864,28 +25864,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>325.1347637696755</v>
+        <v>325.1347637696754</v>
       </c>
       <c r="C44" t="n">
-        <v>180.7801901906645</v>
+        <v>307.6738138772024</v>
       </c>
       <c r="D44" t="n">
-        <v>297.0839637268779</v>
+        <v>297.0839637268778</v>
       </c>
       <c r="E44" t="n">
-        <v>324.3312921784567</v>
+        <v>212.5633884353541</v>
       </c>
       <c r="F44" t="n">
-        <v>349.2769678479063</v>
+        <v>222.3833441613685</v>
       </c>
       <c r="G44" t="n">
-        <v>357.70365962133</v>
+        <v>230.8100359347921</v>
       </c>
       <c r="H44" t="n">
-        <v>281.8757242219621</v>
+        <v>281.875724221962</v>
       </c>
       <c r="I44" t="n">
-        <v>25.98318799006287</v>
+        <v>152.8768116766008</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,19 +25912,19 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>92.27004004734452</v>
       </c>
       <c r="S44" t="n">
-        <v>24.5273680059023</v>
+        <v>151.4209916924402</v>
       </c>
       <c r="T44" t="n">
         <v>165.4967716703262</v>
       </c>
       <c r="U44" t="n">
-        <v>174.2487113182734</v>
+        <v>193.7465750140314</v>
       </c>
       <c r="V44" t="n">
-        <v>270.1531805763298</v>
+        <v>143.2595568897919</v>
       </c>
       <c r="W44" t="n">
         <v>291.6418908236079</v>
@@ -25946,25 +25946,25 @@
         <v>108.9341057560622</v>
       </c>
       <c r="C45" t="n">
-        <v>58.64168217509844</v>
+        <v>115.1094210945106</v>
       </c>
       <c r="D45" t="n">
-        <v>89.84598767083364</v>
+        <v>89.84598767083359</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>100.0460025615958</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>87.47013449957872</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>79.74443926940548</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>54.6363663426913</v>
       </c>
       <c r="I45" t="n">
-        <v>31.79755495760996</v>
+        <v>31.79755495760992</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25991,25 +25991,25 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>42.55875625883802</v>
+        <v>42.55875625883797</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>142.5656508010165</v>
+        <v>17.98821658140875</v>
       </c>
       <c r="U45" t="n">
-        <v>168.3423041871697</v>
+        <v>41.44868050063181</v>
       </c>
       <c r="V45" t="n">
-        <v>175.2015092556202</v>
+        <v>48.30788556908229</v>
       </c>
       <c r="W45" t="n">
         <v>194.0959052671145</v>
       </c>
       <c r="X45" t="n">
-        <v>148.1739073096724</v>
+        <v>148.1739073096723</v>
       </c>
       <c r="Y45" t="n">
         <v>148.0836178834992</v>
@@ -26022,31 +26022,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>122.2329022881322</v>
+        <v>122.2329022881321</v>
       </c>
       <c r="C46" t="n">
         <v>109.6477432048227</v>
       </c>
       <c r="D46" t="n">
-        <v>91.01639512440724</v>
+        <v>91.0163951244072</v>
       </c>
       <c r="E46" t="n">
-        <v>88.83488475276405</v>
+        <v>88.83488475276401</v>
       </c>
       <c r="F46" t="n">
-        <v>87.82197012912613</v>
+        <v>87.82197012912609</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>110.3919014646536</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>104.6280946136344</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>35.76010222286762</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26067,19 +26067,19 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>28.56296535788927</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>119.6943134833644</v>
+        <v>52.48543120312947</v>
       </c>
       <c r="S46" t="n">
-        <v>166.4175201431671</v>
+        <v>39.52389645662927</v>
       </c>
       <c r="T46" t="n">
-        <v>170.3465115344764</v>
+        <v>43.45288784793851</v>
       </c>
       <c r="U46" t="n">
-        <v>228.7199514626858</v>
+        <v>228.7199514626857</v>
       </c>
       <c r="V46" t="n">
         <v>194.5385654300229</v>
@@ -26088,10 +26088,10 @@
         <v>228.9239204427859</v>
       </c>
       <c r="X46" t="n">
-        <v>69.33158078518824</v>
+        <v>168.110577495232</v>
       </c>
       <c r="Y46" t="n">
-        <v>160.9855754582897</v>
+        <v>160.9855754582896</v>
       </c>
     </row>
   </sheetData>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>401907.3490516346</v>
+        <v>401907.3490516347</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>573392.3404239205</v>
+        <v>573392.3404239204</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>573392.3404239205</v>
+        <v>573392.3404239204</v>
       </c>
     </row>
     <row r="11">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>529341.3830217936</v>
+        <v>529341.3830217938</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>455508.1347261963</v>
+        <v>455508.1347261962</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>445260.9279975294</v>
+        <v>445260.9279975296</v>
       </c>
     </row>
   </sheetData>
@@ -26313,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>778312.5217811866</v>
+        <v>778312.5217811863</v>
       </c>
       <c r="C2" t="n">
-        <v>778312.5217811865</v>
+        <v>778312.5217811863</v>
       </c>
       <c r="D2" t="n">
         <v>778312.5217811865</v>
@@ -26325,19 +26325,19 @@
         <v>228721.9089295308</v>
       </c>
       <c r="F2" t="n">
-        <v>228721.9089295305</v>
+        <v>228721.9089295308</v>
       </c>
       <c r="G2" t="n">
-        <v>359451.4366337631</v>
+        <v>359451.436633763</v>
       </c>
       <c r="H2" t="n">
-        <v>396655.7804199326</v>
+        <v>396655.7804199327</v>
       </c>
       <c r="I2" t="n">
         <v>531855.9109460948</v>
       </c>
       <c r="J2" t="n">
-        <v>531855.9109460948</v>
+        <v>531855.9109460947</v>
       </c>
       <c r="K2" t="n">
         <v>531855.9109460947</v>
@@ -26346,16 +26346,16 @@
         <v>585218.0653946702</v>
       </c>
       <c r="M2" t="n">
-        <v>557229.2881116213</v>
+        <v>557229.2881116216</v>
       </c>
       <c r="N2" t="n">
-        <v>479545.3990310692</v>
+        <v>479545.3990310693</v>
       </c>
       <c r="O2" t="n">
-        <v>412480.8367667738</v>
+        <v>412480.836766774</v>
       </c>
       <c r="P2" t="n">
-        <v>404249.2022385032</v>
+        <v>404249.2022385033</v>
       </c>
     </row>
     <row r="3">
@@ -26380,13 +26380,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>54070.87035512019</v>
+        <v>54070.87035512023</v>
       </c>
       <c r="H3" t="n">
-        <v>14599.93717951617</v>
+        <v>14599.93717951618</v>
       </c>
       <c r="I3" t="n">
-        <v>59798.1249397824</v>
+        <v>59798.12493978234</v>
       </c>
       <c r="J3" t="n">
         <v>7992.559371635843</v>
@@ -26395,7 +26395,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>46079.26231504409</v>
+        <v>46079.26231504413</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -26432,16 +26432,16 @@
         <v>95325.00563235153</v>
       </c>
       <c r="G4" t="n">
-        <v>164880.49220809</v>
+        <v>164880.4922080901</v>
       </c>
       <c r="H4" t="n">
-        <v>185638.4396855399</v>
+        <v>185638.43968554</v>
       </c>
       <c r="I4" t="n">
         <v>255716.9332949485</v>
       </c>
       <c r="J4" t="n">
-        <v>255716.9332949486</v>
+        <v>255716.9332949485</v>
       </c>
       <c r="K4" t="n">
         <v>255716.9332949485</v>
@@ -26453,13 +26453,13 @@
         <v>270986.7915526711</v>
       </c>
       <c r="N4" t="n">
-        <v>224247.0125815316</v>
+        <v>224247.0125815317</v>
       </c>
       <c r="O4" t="n">
-        <v>192402.0242645052</v>
+        <v>192402.0242645053</v>
       </c>
       <c r="P4" t="n">
-        <v>189073.4590806154</v>
+        <v>189073.4590806155</v>
       </c>
     </row>
     <row r="5">
@@ -26484,7 +26484,7 @@
         <v>839.9080922675672</v>
       </c>
       <c r="G5" t="n">
-        <v>9587.987769529072</v>
+        <v>9587.987769529078</v>
       </c>
       <c r="H5" t="n">
         <v>11716.0579831491</v>
@@ -26511,7 +26511,7 @@
         <v>13670.14681107636</v>
       </c>
       <c r="P5" t="n">
-        <v>12557.42919959581</v>
+        <v>12557.4291995958</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>319161.7826150831</v>
+        <v>319117.6468364017</v>
       </c>
       <c r="C6" t="n">
-        <v>319161.7826150829</v>
+        <v>319117.6468364017</v>
       </c>
       <c r="D6" t="n">
-        <v>319161.782615083</v>
+        <v>319117.6468364018</v>
       </c>
       <c r="E6" t="n">
-        <v>124564.4358332759</v>
+        <v>110057.3891900774</v>
       </c>
       <c r="F6" t="n">
-        <v>132556.9952049114</v>
+        <v>118049.9485617133</v>
       </c>
       <c r="G6" t="n">
-        <v>130912.0863010238</v>
+        <v>119845.290386884</v>
       </c>
       <c r="H6" t="n">
-        <v>184701.3455717274</v>
+        <v>174613.6113361712</v>
       </c>
       <c r="I6" t="n">
-        <v>194171.6984204165</v>
+        <v>187641.8623566015</v>
       </c>
       <c r="J6" t="n">
-        <v>245977.2639885631</v>
+        <v>239447.4279247479</v>
       </c>
       <c r="K6" t="n">
-        <v>253969.8233601988</v>
+        <v>247439.9872963837</v>
       </c>
       <c r="L6" t="n">
-        <v>227217.1383056819</v>
+        <v>222091.5694641976</v>
       </c>
       <c r="M6" t="n">
-        <v>263168.6588358099</v>
+        <v>257306.5432237195</v>
       </c>
       <c r="N6" t="n">
-        <v>234962.5127140541</v>
+        <v>227056.0842314226</v>
       </c>
       <c r="O6" t="n">
-        <v>206408.6656911922</v>
+        <v>196737.3803068687</v>
       </c>
       <c r="P6" t="n">
-        <v>202618.313958292</v>
+        <v>192730.4066126981</v>
       </c>
     </row>
   </sheetData>
@@ -26700,10 +26700,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="G2" t="n">
-        <v>44.75096572326854</v>
+        <v>44.75096572326858</v>
       </c>
       <c r="H2" t="n">
-        <v>56.82857580712187</v>
+        <v>56.82857580712191</v>
       </c>
       <c r="I2" t="n">
         <v>89.39663285141508</v>
@@ -26721,13 +26721,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="N2" t="n">
-        <v>67.58977710834992</v>
+        <v>67.58977710834996</v>
       </c>
       <c r="O2" t="n">
-        <v>57.59907789380512</v>
+        <v>57.59907789380516</v>
       </c>
       <c r="P2" t="n">
-        <v>57.59907789380512</v>
+        <v>57.59907789380516</v>
       </c>
     </row>
     <row r="3">
@@ -26804,10 +26804,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>95.81938868650674</v>
+        <v>95.8193886865068</v>
       </c>
       <c r="H4" t="n">
-        <v>114.1206651911212</v>
+        <v>114.1206651911213</v>
       </c>
       <c r="I4" t="n">
         <v>241.0142888776591</v>
@@ -26831,7 +26831,7 @@
         <v>145.1949001911523</v>
       </c>
       <c r="P4" t="n">
-        <v>126.8936236865379</v>
+        <v>126.8936236865378</v>
       </c>
     </row>
   </sheetData>
@@ -26922,13 +26922,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>34.76026650872373</v>
+        <v>34.76026650872377</v>
       </c>
       <c r="H2" t="n">
         <v>12.07761008385333</v>
       </c>
       <c r="I2" t="n">
-        <v>32.56805704429321</v>
+        <v>32.56805704429317</v>
       </c>
       <c r="J2" t="n">
         <v>9.990699214544804</v>
@@ -26937,7 +26937,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>57.59907789380512</v>
+        <v>57.59907789380516</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27026,13 +27026,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>95.81938868650674</v>
+        <v>95.8193886865068</v>
       </c>
       <c r="H4" t="n">
-        <v>18.3012765046144</v>
+        <v>18.30127650461444</v>
       </c>
       <c r="I4" t="n">
-        <v>126.8936236865379</v>
+        <v>126.8936236865378</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27159,13 +27159,13 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>34.76026650872373</v>
+        <v>34.76026650872377</v>
       </c>
       <c r="M2" t="n">
         <v>12.07761008385333</v>
       </c>
       <c r="N2" t="n">
-        <v>32.56805704429321</v>
+        <v>32.56805704429317</v>
       </c>
       <c r="O2" t="n">
         <v>9.990699214544804</v>
@@ -27272,10 +27272,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>95.81938868650674</v>
+        <v>95.8193886865068</v>
       </c>
       <c r="P4" t="n">
-        <v>18.3012765046144</v>
+        <v>18.30127650461444</v>
       </c>
     </row>
   </sheetData>
@@ -28563,28 +28563,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>44.75096572326854</v>
+        <v>44.75096572326858</v>
       </c>
       <c r="C17" t="n">
-        <v>44.75096572326854</v>
+        <v>44.75096572326858</v>
       </c>
       <c r="D17" t="n">
-        <v>44.75096572326854</v>
+        <v>44.75096572326858</v>
       </c>
       <c r="E17" t="n">
-        <v>44.75096572326854</v>
+        <v>44.75096572326858</v>
       </c>
       <c r="F17" t="n">
-        <v>44.75096572326854</v>
+        <v>44.75096572326858</v>
       </c>
       <c r="G17" t="n">
-        <v>44.75096572326854</v>
+        <v>44.75096572326858</v>
       </c>
       <c r="H17" t="n">
-        <v>44.75096572326854</v>
+        <v>44.75096572326858</v>
       </c>
       <c r="I17" t="n">
-        <v>44.75096572326854</v>
+        <v>44.75096572326858</v>
       </c>
       <c r="J17" t="n">
         <v>11.94928935461252</v>
@@ -28611,28 +28611,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>44.75096572326854</v>
+        <v>44.75096572326858</v>
       </c>
       <c r="S17" t="n">
-        <v>44.75096572326854</v>
+        <v>44.75096572326858</v>
       </c>
       <c r="T17" t="n">
-        <v>44.75096572326854</v>
+        <v>44.75096572326858</v>
       </c>
       <c r="U17" t="n">
-        <v>44.75096572326854</v>
+        <v>44.75096572326858</v>
       </c>
       <c r="V17" t="n">
-        <v>44.75096572326854</v>
+        <v>44.75096572326858</v>
       </c>
       <c r="W17" t="n">
-        <v>44.75096572326854</v>
+        <v>44.75096572326858</v>
       </c>
       <c r="X17" t="n">
-        <v>44.75096572326854</v>
+        <v>44.75096572326858</v>
       </c>
       <c r="Y17" t="n">
-        <v>44.75096572326854</v>
+        <v>44.75096572326858</v>
       </c>
     </row>
     <row r="18">
@@ -28642,28 +28642,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>44.75096572326854</v>
+        <v>44.75096572326858</v>
       </c>
       <c r="C18" t="n">
-        <v>44.75096572326854</v>
+        <v>44.75096572326858</v>
       </c>
       <c r="D18" t="n">
-        <v>44.75096572326854</v>
+        <v>44.75096572326858</v>
       </c>
       <c r="E18" t="n">
-        <v>44.75096572326854</v>
+        <v>44.75096572326858</v>
       </c>
       <c r="F18" t="n">
-        <v>44.75096572326854</v>
+        <v>44.75096572326858</v>
       </c>
       <c r="G18" t="n">
-        <v>44.75096572326854</v>
+        <v>44.75096572326858</v>
       </c>
       <c r="H18" t="n">
-        <v>44.75096572326854</v>
+        <v>44.75096572326858</v>
       </c>
       <c r="I18" t="n">
-        <v>44.75096572326854</v>
+        <v>44.75096572326858</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
@@ -28690,28 +28690,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>44.75096572326854</v>
+        <v>44.75096572326858</v>
       </c>
       <c r="S18" t="n">
-        <v>44.75096572326854</v>
+        <v>44.75096572326858</v>
       </c>
       <c r="T18" t="n">
-        <v>44.75096572326854</v>
+        <v>44.75096572326858</v>
       </c>
       <c r="U18" t="n">
-        <v>44.75096572326854</v>
+        <v>44.75096572326858</v>
       </c>
       <c r="V18" t="n">
-        <v>44.75096572326854</v>
+        <v>44.75096572326858</v>
       </c>
       <c r="W18" t="n">
-        <v>44.75096572326854</v>
+        <v>44.75096572326858</v>
       </c>
       <c r="X18" t="n">
-        <v>44.75096572326854</v>
+        <v>44.75096572326858</v>
       </c>
       <c r="Y18" t="n">
-        <v>44.75096572326854</v>
+        <v>44.75096572326858</v>
       </c>
     </row>
     <row r="19">
@@ -28721,76 +28721,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>44.75096572326854</v>
+        <v>44.75096572326858</v>
       </c>
       <c r="C19" t="n">
-        <v>44.75096572326854</v>
+        <v>44.75096572326858</v>
       </c>
       <c r="D19" t="n">
-        <v>44.75096572326854</v>
+        <v>44.75096572326858</v>
       </c>
       <c r="E19" t="n">
-        <v>44.75096572326854</v>
+        <v>44.75096572326858</v>
       </c>
       <c r="F19" t="n">
-        <v>44.75096572326854</v>
+        <v>44.75096572326858</v>
       </c>
       <c r="G19" t="n">
-        <v>44.75096572326854</v>
+        <v>44.75096572326858</v>
       </c>
       <c r="H19" t="n">
-        <v>44.75096572326854</v>
+        <v>44.75096572326858</v>
       </c>
       <c r="I19" t="n">
-        <v>44.75096572326854</v>
+        <v>44.75096572326858</v>
       </c>
       <c r="J19" t="n">
-        <v>44.75096572326854</v>
+        <v>44.75096572326858</v>
       </c>
       <c r="K19" t="n">
-        <v>44.75096572326854</v>
+        <v>44.75096572326858</v>
       </c>
       <c r="L19" t="n">
-        <v>44.75096572326854</v>
+        <v>44.75096572326858</v>
       </c>
       <c r="M19" t="n">
-        <v>44.75096572326854</v>
+        <v>44.75096572326858</v>
       </c>
       <c r="N19" t="n">
-        <v>44.75096572326854</v>
+        <v>44.75096572326858</v>
       </c>
       <c r="O19" t="n">
-        <v>44.75096572326854</v>
+        <v>44.75096572326858</v>
       </c>
       <c r="P19" t="n">
-        <v>44.75096572326854</v>
+        <v>44.75096572326858</v>
       </c>
       <c r="Q19" t="n">
-        <v>44.75096572326854</v>
+        <v>44.75096572326858</v>
       </c>
       <c r="R19" t="n">
-        <v>44.75096572326854</v>
+        <v>44.75096572326858</v>
       </c>
       <c r="S19" t="n">
-        <v>44.75096572326854</v>
+        <v>44.75096572326858</v>
       </c>
       <c r="T19" t="n">
-        <v>44.75096572326854</v>
+        <v>44.75096572326858</v>
       </c>
       <c r="U19" t="n">
-        <v>44.75096572326854</v>
+        <v>44.75096572326858</v>
       </c>
       <c r="V19" t="n">
-        <v>44.75096572326854</v>
+        <v>44.75096572326858</v>
       </c>
       <c r="W19" t="n">
-        <v>44.75096572326854</v>
+        <v>44.75096572326858</v>
       </c>
       <c r="X19" t="n">
-        <v>44.75096572326854</v>
+        <v>44.75096572326858</v>
       </c>
       <c r="Y19" t="n">
-        <v>44.75096572326854</v>
+        <v>44.75096572326858</v>
       </c>
     </row>
     <row r="20">
@@ -28800,28 +28800,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>56.82857580712187</v>
+        <v>56.82857580712191</v>
       </c>
       <c r="C20" t="n">
-        <v>56.82857580712187</v>
+        <v>56.82857580712191</v>
       </c>
       <c r="D20" t="n">
-        <v>56.82857580712187</v>
+        <v>56.82857580712191</v>
       </c>
       <c r="E20" t="n">
-        <v>56.82857580712187</v>
+        <v>56.82857580712191</v>
       </c>
       <c r="F20" t="n">
-        <v>56.82857580712187</v>
+        <v>56.82857580712191</v>
       </c>
       <c r="G20" t="n">
-        <v>56.82857580712187</v>
+        <v>56.82857580712191</v>
       </c>
       <c r="H20" t="n">
-        <v>56.82857580712187</v>
+        <v>56.82857580712191</v>
       </c>
       <c r="I20" t="n">
-        <v>56.82857580712187</v>
+        <v>56.82857580712191</v>
       </c>
       <c r="J20" t="n">
         <v>11.94928935461252</v>
@@ -28848,28 +28848,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>56.82857580712187</v>
+        <v>56.82857580712191</v>
       </c>
       <c r="S20" t="n">
-        <v>56.82857580712187</v>
+        <v>56.82857580712191</v>
       </c>
       <c r="T20" t="n">
-        <v>56.82857580712187</v>
+        <v>56.82857580712191</v>
       </c>
       <c r="U20" t="n">
-        <v>56.82857580712187</v>
+        <v>56.82857580712191</v>
       </c>
       <c r="V20" t="n">
-        <v>56.82857580712187</v>
+        <v>56.82857580712191</v>
       </c>
       <c r="W20" t="n">
-        <v>56.82857580712187</v>
+        <v>56.82857580712191</v>
       </c>
       <c r="X20" t="n">
-        <v>56.82857580712187</v>
+        <v>56.82857580712191</v>
       </c>
       <c r="Y20" t="n">
-        <v>56.82857580712187</v>
+        <v>56.82857580712191</v>
       </c>
     </row>
     <row r="21">
@@ -28879,28 +28879,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>56.82857580712187</v>
+        <v>56.82857580712191</v>
       </c>
       <c r="C21" t="n">
-        <v>56.82857580712187</v>
+        <v>56.82857580712191</v>
       </c>
       <c r="D21" t="n">
-        <v>56.82857580712187</v>
+        <v>56.82857580712191</v>
       </c>
       <c r="E21" t="n">
-        <v>56.82857580712187</v>
+        <v>56.82857580712191</v>
       </c>
       <c r="F21" t="n">
-        <v>56.82857580712187</v>
+        <v>56.82857580712191</v>
       </c>
       <c r="G21" t="n">
-        <v>56.82857580712187</v>
+        <v>56.82857580712191</v>
       </c>
       <c r="H21" t="n">
-        <v>56.82857580712187</v>
+        <v>56.82857580712191</v>
       </c>
       <c r="I21" t="n">
-        <v>56.82857580712187</v>
+        <v>56.82857580712191</v>
       </c>
       <c r="J21" t="n">
         <v>0.7465913262578567</v>
@@ -28927,28 +28927,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>56.82857580712187</v>
+        <v>56.82857580712191</v>
       </c>
       <c r="S21" t="n">
-        <v>56.82857580712187</v>
+        <v>56.82857580712191</v>
       </c>
       <c r="T21" t="n">
-        <v>56.82857580712187</v>
+        <v>56.82857580712191</v>
       </c>
       <c r="U21" t="n">
-        <v>56.82857580712187</v>
+        <v>56.82857580712191</v>
       </c>
       <c r="V21" t="n">
-        <v>56.82857580712187</v>
+        <v>56.82857580712191</v>
       </c>
       <c r="W21" t="n">
-        <v>56.82857580712187</v>
+        <v>56.82857580712191</v>
       </c>
       <c r="X21" t="n">
-        <v>56.82857580712187</v>
+        <v>56.82857580712191</v>
       </c>
       <c r="Y21" t="n">
-        <v>56.82857580712187</v>
+        <v>56.82857580712191</v>
       </c>
     </row>
     <row r="22">
@@ -28958,76 +28958,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>56.82857580712187</v>
+        <v>56.82857580712191</v>
       </c>
       <c r="C22" t="n">
-        <v>56.82857580712187</v>
+        <v>56.82857580712191</v>
       </c>
       <c r="D22" t="n">
-        <v>56.82857580712187</v>
+        <v>56.82857580712191</v>
       </c>
       <c r="E22" t="n">
-        <v>56.82857580712187</v>
+        <v>56.82857580712191</v>
       </c>
       <c r="F22" t="n">
-        <v>56.82857580712187</v>
+        <v>56.82857580712191</v>
       </c>
       <c r="G22" t="n">
-        <v>56.82857580712187</v>
+        <v>56.82857580712191</v>
       </c>
       <c r="H22" t="n">
-        <v>56.82857580712187</v>
+        <v>56.82857580712191</v>
       </c>
       <c r="I22" t="n">
-        <v>56.82857580712187</v>
+        <v>56.82857580712191</v>
       </c>
       <c r="J22" t="n">
-        <v>56.82857580712187</v>
+        <v>56.82857580712191</v>
       </c>
       <c r="K22" t="n">
-        <v>56.82857580712187</v>
+        <v>56.82857580712191</v>
       </c>
       <c r="L22" t="n">
-        <v>56.82857580712187</v>
+        <v>56.82857580712191</v>
       </c>
       <c r="M22" t="n">
-        <v>56.82857580712187</v>
+        <v>56.82857580712191</v>
       </c>
       <c r="N22" t="n">
-        <v>56.82857580712187</v>
+        <v>56.82857580712191</v>
       </c>
       <c r="O22" t="n">
-        <v>56.82857580712187</v>
+        <v>56.82857580712191</v>
       </c>
       <c r="P22" t="n">
-        <v>56.82857580712187</v>
+        <v>56.82857580712191</v>
       </c>
       <c r="Q22" t="n">
-        <v>56.82857580712187</v>
+        <v>56.82857580712191</v>
       </c>
       <c r="R22" t="n">
-        <v>56.82857580712187</v>
+        <v>56.82857580712191</v>
       </c>
       <c r="S22" t="n">
-        <v>56.82857580712187</v>
+        <v>56.82857580712191</v>
       </c>
       <c r="T22" t="n">
-        <v>56.82857580712187</v>
+        <v>56.82857580712191</v>
       </c>
       <c r="U22" t="n">
-        <v>56.82857580712187</v>
+        <v>56.82857580712191</v>
       </c>
       <c r="V22" t="n">
-        <v>56.82857580712187</v>
+        <v>56.82857580712191</v>
       </c>
       <c r="W22" t="n">
-        <v>56.82857580712187</v>
+        <v>56.82857580712191</v>
       </c>
       <c r="X22" t="n">
-        <v>56.82857580712187</v>
+        <v>56.82857580712191</v>
       </c>
       <c r="Y22" t="n">
-        <v>56.82857580712187</v>
+        <v>56.82857580712191</v>
       </c>
     </row>
     <row r="23">
@@ -30222,28 +30222,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>67.58977710834992</v>
+        <v>67.58977710834996</v>
       </c>
       <c r="C38" t="n">
-        <v>67.58977710834992</v>
+        <v>67.58977710834996</v>
       </c>
       <c r="D38" t="n">
-        <v>67.58977710834992</v>
+        <v>67.58977710834996</v>
       </c>
       <c r="E38" t="n">
-        <v>67.58977710834992</v>
+        <v>67.58977710834996</v>
       </c>
       <c r="F38" t="n">
-        <v>67.58977710834992</v>
+        <v>67.58977710834996</v>
       </c>
       <c r="G38" t="n">
-        <v>67.58977710834992</v>
+        <v>67.58977710834996</v>
       </c>
       <c r="H38" t="n">
-        <v>67.58977710834992</v>
+        <v>67.58977710834996</v>
       </c>
       <c r="I38" t="n">
-        <v>67.58977710834992</v>
+        <v>67.58977710834996</v>
       </c>
       <c r="J38" t="n">
         <v>11.94928935461252</v>
@@ -30270,28 +30270,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>67.58977710834992</v>
+        <v>67.58977710834996</v>
       </c>
       <c r="S38" t="n">
-        <v>67.58977710834992</v>
+        <v>67.58977710834996</v>
       </c>
       <c r="T38" t="n">
-        <v>67.58977710834992</v>
+        <v>67.58977710834996</v>
       </c>
       <c r="U38" t="n">
-        <v>67.58977710834992</v>
+        <v>67.58977710834996</v>
       </c>
       <c r="V38" t="n">
-        <v>67.58977710834992</v>
+        <v>67.58977710834996</v>
       </c>
       <c r="W38" t="n">
-        <v>67.58977710834992</v>
+        <v>67.58977710834996</v>
       </c>
       <c r="X38" t="n">
-        <v>67.58977710834992</v>
+        <v>67.58977710834996</v>
       </c>
       <c r="Y38" t="n">
-        <v>67.58977710834992</v>
+        <v>67.58977710834996</v>
       </c>
     </row>
     <row r="39">
@@ -30301,28 +30301,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>67.58977710834992</v>
+        <v>67.58977710834996</v>
       </c>
       <c r="C39" t="n">
-        <v>67.58977710834992</v>
+        <v>67.58977710834996</v>
       </c>
       <c r="D39" t="n">
-        <v>67.58977710834992</v>
+        <v>67.58977710834996</v>
       </c>
       <c r="E39" t="n">
-        <v>67.58977710834992</v>
+        <v>67.58977710834996</v>
       </c>
       <c r="F39" t="n">
-        <v>67.58977710834992</v>
+        <v>67.58977710834996</v>
       </c>
       <c r="G39" t="n">
-        <v>67.58977710834992</v>
+        <v>67.58977710834996</v>
       </c>
       <c r="H39" t="n">
-        <v>67.58977710834992</v>
+        <v>67.58977710834996</v>
       </c>
       <c r="I39" t="n">
-        <v>67.58977710834992</v>
+        <v>67.58977710834996</v>
       </c>
       <c r="J39" t="n">
         <v>0.7465913262578567</v>
@@ -30349,28 +30349,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>67.58977710834992</v>
+        <v>67.58977710834996</v>
       </c>
       <c r="S39" t="n">
-        <v>67.58977710834992</v>
+        <v>67.58977710834996</v>
       </c>
       <c r="T39" t="n">
-        <v>67.58977710834992</v>
+        <v>67.58977710834996</v>
       </c>
       <c r="U39" t="n">
-        <v>67.58977710834992</v>
+        <v>67.58977710834996</v>
       </c>
       <c r="V39" t="n">
-        <v>67.58977710834992</v>
+        <v>67.58977710834996</v>
       </c>
       <c r="W39" t="n">
-        <v>67.58977710834992</v>
+        <v>67.58977710834996</v>
       </c>
       <c r="X39" t="n">
-        <v>67.58977710834992</v>
+        <v>67.58977710834996</v>
       </c>
       <c r="Y39" t="n">
-        <v>67.58977710834992</v>
+        <v>67.58977710834996</v>
       </c>
     </row>
     <row r="40">
@@ -30380,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>67.58977710834992</v>
+        <v>67.58977710834996</v>
       </c>
       <c r="C40" t="n">
-        <v>67.58977710834992</v>
+        <v>67.58977710834996</v>
       </c>
       <c r="D40" t="n">
-        <v>67.58977710834992</v>
+        <v>67.58977710834996</v>
       </c>
       <c r="E40" t="n">
-        <v>67.58977710834992</v>
+        <v>67.58977710834996</v>
       </c>
       <c r="F40" t="n">
-        <v>67.58977710834992</v>
+        <v>67.58977710834996</v>
       </c>
       <c r="G40" t="n">
-        <v>67.58977710834992</v>
+        <v>67.58977710834996</v>
       </c>
       <c r="H40" t="n">
-        <v>67.58977710834992</v>
+        <v>67.58977710834996</v>
       </c>
       <c r="I40" t="n">
-        <v>67.58977710834992</v>
+        <v>67.58977710834996</v>
       </c>
       <c r="J40" t="n">
-        <v>67.58977710834992</v>
+        <v>67.58977710834996</v>
       </c>
       <c r="K40" t="n">
-        <v>67.58977710834992</v>
+        <v>67.58977710834996</v>
       </c>
       <c r="L40" t="n">
-        <v>67.58977710834992</v>
+        <v>67.58977710834996</v>
       </c>
       <c r="M40" t="n">
-        <v>67.58977710834992</v>
+        <v>67.58977710834996</v>
       </c>
       <c r="N40" t="n">
-        <v>67.58977710834992</v>
+        <v>67.58977710834996</v>
       </c>
       <c r="O40" t="n">
-        <v>67.58977710834992</v>
+        <v>67.58977710834996</v>
       </c>
       <c r="P40" t="n">
-        <v>67.58977710834992</v>
+        <v>67.58977710834996</v>
       </c>
       <c r="Q40" t="n">
-        <v>67.58977710834992</v>
+        <v>67.58977710834996</v>
       </c>
       <c r="R40" t="n">
-        <v>67.58977710834992</v>
+        <v>67.58977710834996</v>
       </c>
       <c r="S40" t="n">
-        <v>67.58977710834992</v>
+        <v>67.58977710834996</v>
       </c>
       <c r="T40" t="n">
-        <v>67.58977710834992</v>
+        <v>67.58977710834996</v>
       </c>
       <c r="U40" t="n">
-        <v>67.58977710834992</v>
+        <v>67.58977710834996</v>
       </c>
       <c r="V40" t="n">
-        <v>67.58977710834992</v>
+        <v>67.58977710834996</v>
       </c>
       <c r="W40" t="n">
-        <v>67.58977710834992</v>
+        <v>67.58977710834996</v>
       </c>
       <c r="X40" t="n">
-        <v>67.58977710834992</v>
+        <v>67.58977710834996</v>
       </c>
       <c r="Y40" t="n">
-        <v>67.58977710834992</v>
+        <v>67.58977710834996</v>
       </c>
     </row>
     <row r="41">
@@ -30459,28 +30459,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>57.59907789380512</v>
+        <v>57.59907789380516</v>
       </c>
       <c r="C41" t="n">
-        <v>57.59907789380512</v>
+        <v>57.59907789380516</v>
       </c>
       <c r="D41" t="n">
-        <v>57.59907789380512</v>
+        <v>57.59907789380516</v>
       </c>
       <c r="E41" t="n">
-        <v>57.59907789380512</v>
+        <v>57.59907789380516</v>
       </c>
       <c r="F41" t="n">
-        <v>57.59907789380512</v>
+        <v>57.59907789380516</v>
       </c>
       <c r="G41" t="n">
-        <v>57.59907789380512</v>
+        <v>57.59907789380516</v>
       </c>
       <c r="H41" t="n">
-        <v>57.59907789380512</v>
+        <v>57.59907789380516</v>
       </c>
       <c r="I41" t="n">
-        <v>57.59907789380512</v>
+        <v>57.59907789380516</v>
       </c>
       <c r="J41" t="n">
         <v>11.94928935461252</v>
@@ -30507,28 +30507,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>57.59907789380512</v>
+        <v>57.59907789380516</v>
       </c>
       <c r="S41" t="n">
-        <v>57.59907789380512</v>
+        <v>57.59907789380516</v>
       </c>
       <c r="T41" t="n">
-        <v>57.59907789380512</v>
+        <v>57.59907789380516</v>
       </c>
       <c r="U41" t="n">
-        <v>57.59907789380512</v>
+        <v>57.59907789380516</v>
       </c>
       <c r="V41" t="n">
-        <v>57.59907789380512</v>
+        <v>57.59907789380516</v>
       </c>
       <c r="W41" t="n">
-        <v>57.59907789380512</v>
+        <v>57.59907789380516</v>
       </c>
       <c r="X41" t="n">
-        <v>57.59907789380512</v>
+        <v>57.59907789380516</v>
       </c>
       <c r="Y41" t="n">
-        <v>57.59907789380512</v>
+        <v>57.59907789380516</v>
       </c>
     </row>
     <row r="42">
@@ -30538,28 +30538,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>57.59907789380512</v>
+        <v>57.59907789380516</v>
       </c>
       <c r="C42" t="n">
-        <v>57.59907789380512</v>
+        <v>57.59907789380516</v>
       </c>
       <c r="D42" t="n">
-        <v>57.59907789380512</v>
+        <v>57.59907789380516</v>
       </c>
       <c r="E42" t="n">
-        <v>57.59907789380512</v>
+        <v>57.59907789380516</v>
       </c>
       <c r="F42" t="n">
-        <v>57.59907789380512</v>
+        <v>57.59907789380516</v>
       </c>
       <c r="G42" t="n">
-        <v>57.59907789380512</v>
+        <v>57.59907789380516</v>
       </c>
       <c r="H42" t="n">
-        <v>57.59907789380512</v>
+        <v>57.59907789380516</v>
       </c>
       <c r="I42" t="n">
-        <v>57.59907789380512</v>
+        <v>57.59907789380516</v>
       </c>
       <c r="J42" t="n">
         <v>0.7465913262578567</v>
@@ -30586,28 +30586,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>57.59907789380512</v>
+        <v>57.59907789380516</v>
       </c>
       <c r="S42" t="n">
-        <v>57.59907789380512</v>
+        <v>57.59907789380516</v>
       </c>
       <c r="T42" t="n">
-        <v>57.59907789380512</v>
+        <v>57.59907789380516</v>
       </c>
       <c r="U42" t="n">
-        <v>57.59907789380512</v>
+        <v>57.59907789380516</v>
       </c>
       <c r="V42" t="n">
-        <v>57.59907789380512</v>
+        <v>57.59907789380516</v>
       </c>
       <c r="W42" t="n">
-        <v>57.59907789380512</v>
+        <v>57.59907789380516</v>
       </c>
       <c r="X42" t="n">
-        <v>57.59907789380512</v>
+        <v>57.59907789380516</v>
       </c>
       <c r="Y42" t="n">
-        <v>57.59907789380512</v>
+        <v>57.59907789380516</v>
       </c>
     </row>
     <row r="43">
@@ -30617,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>57.59907789380512</v>
+        <v>57.59907789380516</v>
       </c>
       <c r="C43" t="n">
-        <v>57.59907789380512</v>
+        <v>57.59907789380516</v>
       </c>
       <c r="D43" t="n">
-        <v>57.59907789380512</v>
+        <v>57.59907789380516</v>
       </c>
       <c r="E43" t="n">
-        <v>57.59907789380512</v>
+        <v>57.59907789380516</v>
       </c>
       <c r="F43" t="n">
-        <v>57.59907789380512</v>
+        <v>57.59907789380516</v>
       </c>
       <c r="G43" t="n">
-        <v>57.59907789380512</v>
+        <v>57.59907789380516</v>
       </c>
       <c r="H43" t="n">
-        <v>57.59907789380512</v>
+        <v>57.59907789380516</v>
       </c>
       <c r="I43" t="n">
-        <v>57.59907789380512</v>
+        <v>57.59907789380516</v>
       </c>
       <c r="J43" t="n">
-        <v>57.59907789380512</v>
+        <v>57.59907789380516</v>
       </c>
       <c r="K43" t="n">
-        <v>57.59907789380512</v>
+        <v>57.59907789380516</v>
       </c>
       <c r="L43" t="n">
-        <v>57.59907789380512</v>
+        <v>57.59907789380516</v>
       </c>
       <c r="M43" t="n">
-        <v>57.59907789380512</v>
+        <v>57.59907789380516</v>
       </c>
       <c r="N43" t="n">
-        <v>57.59907789380512</v>
+        <v>57.59907789380516</v>
       </c>
       <c r="O43" t="n">
-        <v>57.59907789380512</v>
+        <v>57.59907789380516</v>
       </c>
       <c r="P43" t="n">
-        <v>57.59907789380512</v>
+        <v>57.59907789380516</v>
       </c>
       <c r="Q43" t="n">
-        <v>57.59907789380512</v>
+        <v>57.59907789380516</v>
       </c>
       <c r="R43" t="n">
-        <v>57.59907789380512</v>
+        <v>57.59907789380516</v>
       </c>
       <c r="S43" t="n">
-        <v>57.59907789380512</v>
+        <v>57.59907789380516</v>
       </c>
       <c r="T43" t="n">
-        <v>57.59907789380512</v>
+        <v>57.59907789380516</v>
       </c>
       <c r="U43" t="n">
-        <v>57.59907789380512</v>
+        <v>57.59907789380516</v>
       </c>
       <c r="V43" t="n">
-        <v>57.59907789380512</v>
+        <v>57.59907789380516</v>
       </c>
       <c r="W43" t="n">
-        <v>57.59907789380512</v>
+        <v>57.59907789380516</v>
       </c>
       <c r="X43" t="n">
-        <v>57.59907789380512</v>
+        <v>57.59907789380516</v>
       </c>
       <c r="Y43" t="n">
-        <v>57.59907789380512</v>
+        <v>57.59907789380516</v>
       </c>
     </row>
     <row r="44">
@@ -30696,28 +30696,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>57.59907789380512</v>
+        <v>57.59907789380516</v>
       </c>
       <c r="C44" t="n">
-        <v>57.59907789380512</v>
+        <v>57.59907789380516</v>
       </c>
       <c r="D44" t="n">
-        <v>57.59907789380512</v>
+        <v>57.59907789380516</v>
       </c>
       <c r="E44" t="n">
-        <v>57.59907789380512</v>
+        <v>57.59907789380516</v>
       </c>
       <c r="F44" t="n">
-        <v>57.59907789380512</v>
+        <v>57.59907789380516</v>
       </c>
       <c r="G44" t="n">
-        <v>57.59907789380512</v>
+        <v>57.59907789380516</v>
       </c>
       <c r="H44" t="n">
-        <v>57.59907789380512</v>
+        <v>57.59907789380516</v>
       </c>
       <c r="I44" t="n">
-        <v>57.59907789380512</v>
+        <v>57.59907789380516</v>
       </c>
       <c r="J44" t="n">
         <v>11.94928935461252</v>
@@ -30744,28 +30744,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>57.59907789380512</v>
+        <v>57.59907789380516</v>
       </c>
       <c r="S44" t="n">
-        <v>57.59907789380512</v>
+        <v>57.59907789380516</v>
       </c>
       <c r="T44" t="n">
-        <v>57.59907789380512</v>
+        <v>57.59907789380516</v>
       </c>
       <c r="U44" t="n">
-        <v>57.59907789380512</v>
+        <v>57.59907789380516</v>
       </c>
       <c r="V44" t="n">
-        <v>57.59907789380512</v>
+        <v>57.59907789380516</v>
       </c>
       <c r="W44" t="n">
-        <v>57.59907789380512</v>
+        <v>57.59907789380516</v>
       </c>
       <c r="X44" t="n">
-        <v>57.59907789380512</v>
+        <v>57.59907789380516</v>
       </c>
       <c r="Y44" t="n">
-        <v>57.59907789380512</v>
+        <v>57.59907789380516</v>
       </c>
     </row>
     <row r="45">
@@ -30775,28 +30775,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>57.59907789380512</v>
+        <v>57.59907789380516</v>
       </c>
       <c r="C45" t="n">
-        <v>57.59907789380512</v>
+        <v>57.59907789380516</v>
       </c>
       <c r="D45" t="n">
-        <v>57.59907789380512</v>
+        <v>57.59907789380516</v>
       </c>
       <c r="E45" t="n">
-        <v>57.59907789380512</v>
+        <v>57.59907789380516</v>
       </c>
       <c r="F45" t="n">
-        <v>57.59907789380512</v>
+        <v>57.59907789380516</v>
       </c>
       <c r="G45" t="n">
-        <v>57.59907789380512</v>
+        <v>57.59907789380516</v>
       </c>
       <c r="H45" t="n">
-        <v>57.59907789380512</v>
+        <v>57.59907789380516</v>
       </c>
       <c r="I45" t="n">
-        <v>57.59907789380512</v>
+        <v>57.59907789380516</v>
       </c>
       <c r="J45" t="n">
         <v>0.7465913262578567</v>
@@ -30823,28 +30823,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>57.59907789380512</v>
+        <v>57.59907789380516</v>
       </c>
       <c r="S45" t="n">
-        <v>57.59907789380512</v>
+        <v>57.59907789380516</v>
       </c>
       <c r="T45" t="n">
-        <v>57.59907789380512</v>
+        <v>57.59907789380516</v>
       </c>
       <c r="U45" t="n">
-        <v>57.59907789380512</v>
+        <v>57.59907789380516</v>
       </c>
       <c r="V45" t="n">
-        <v>57.59907789380512</v>
+        <v>57.59907789380516</v>
       </c>
       <c r="W45" t="n">
-        <v>57.59907789380512</v>
+        <v>57.59907789380516</v>
       </c>
       <c r="X45" t="n">
-        <v>57.59907789380512</v>
+        <v>57.59907789380516</v>
       </c>
       <c r="Y45" t="n">
-        <v>57.59907789380512</v>
+        <v>57.59907789380516</v>
       </c>
     </row>
     <row r="46">
@@ -30854,76 +30854,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>57.59907789380512</v>
+        <v>57.59907789380516</v>
       </c>
       <c r="C46" t="n">
-        <v>57.59907789380512</v>
+        <v>57.59907789380516</v>
       </c>
       <c r="D46" t="n">
-        <v>57.59907789380512</v>
+        <v>57.59907789380516</v>
       </c>
       <c r="E46" t="n">
-        <v>57.59907789380512</v>
+        <v>57.59907789380516</v>
       </c>
       <c r="F46" t="n">
-        <v>57.59907789380512</v>
+        <v>57.59907789380516</v>
       </c>
       <c r="G46" t="n">
-        <v>57.59907789380512</v>
+        <v>57.59907789380516</v>
       </c>
       <c r="H46" t="n">
-        <v>57.59907789380512</v>
+        <v>57.59907789380516</v>
       </c>
       <c r="I46" t="n">
-        <v>57.59907789380512</v>
+        <v>57.59907789380516</v>
       </c>
       <c r="J46" t="n">
-        <v>57.59907789380512</v>
+        <v>57.59907789380516</v>
       </c>
       <c r="K46" t="n">
-        <v>57.59907789380512</v>
+        <v>57.59907789380516</v>
       </c>
       <c r="L46" t="n">
-        <v>57.59907789380512</v>
+        <v>57.59907789380516</v>
       </c>
       <c r="M46" t="n">
-        <v>57.59907789380512</v>
+        <v>57.59907789380516</v>
       </c>
       <c r="N46" t="n">
-        <v>57.59907789380512</v>
+        <v>57.59907789380516</v>
       </c>
       <c r="O46" t="n">
-        <v>57.59907789380512</v>
+        <v>57.59907789380516</v>
       </c>
       <c r="P46" t="n">
-        <v>57.59907789380512</v>
+        <v>57.59907789380516</v>
       </c>
       <c r="Q46" t="n">
-        <v>57.59907789380512</v>
+        <v>57.59907789380516</v>
       </c>
       <c r="R46" t="n">
-        <v>57.59907789380512</v>
+        <v>57.59907789380516</v>
       </c>
       <c r="S46" t="n">
-        <v>57.59907789380512</v>
+        <v>57.59907789380516</v>
       </c>
       <c r="T46" t="n">
-        <v>57.59907789380512</v>
+        <v>57.59907789380516</v>
       </c>
       <c r="U46" t="n">
-        <v>57.59907789380512</v>
+        <v>57.59907789380516</v>
       </c>
       <c r="V46" t="n">
-        <v>57.59907789380512</v>
+        <v>57.59907789380516</v>
       </c>
       <c r="W46" t="n">
-        <v>57.59907789380512</v>
+        <v>57.59907789380516</v>
       </c>
       <c r="X46" t="n">
-        <v>57.59907789380512</v>
+        <v>57.59907789380516</v>
       </c>
       <c r="Y46" t="n">
-        <v>57.59907789380512</v>
+        <v>57.59907789380516</v>
       </c>
     </row>
   </sheetData>
@@ -35886,19 +35886,19 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>95.81938868650674</v>
+        <v>95.8193886865068</v>
       </c>
       <c r="L17" t="n">
-        <v>95.81938868650674</v>
+        <v>95.8193886865068</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>95.8193886865068</v>
       </c>
       <c r="N17" t="n">
-        <v>1.382185818313574</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>95.81938868650674</v>
+        <v>1.38218581831366</v>
       </c>
       <c r="P17" t="n">
         <v>90.5657124162131</v>
@@ -35965,25 +35965,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>95.8193886865068</v>
       </c>
       <c r="L18" t="n">
-        <v>95.81938868650674</v>
+        <v>95.8193886865068</v>
       </c>
       <c r="M18" t="n">
-        <v>91.94789823452666</v>
+        <v>95.8193886865068</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>21.8523845846992</v>
       </c>
       <c r="O18" t="n">
-        <v>95.81938868650674</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>95.81938868650674</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36044,22 +36044,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>22.48147389738568</v>
+        <v>22.48147389738573</v>
       </c>
       <c r="L19" t="n">
-        <v>72.34099098358467</v>
+        <v>72.34099098358472</v>
       </c>
       <c r="M19" t="n">
-        <v>84.33484268510912</v>
+        <v>84.33484268510917</v>
       </c>
       <c r="N19" t="n">
-        <v>88.88313810249713</v>
+        <v>88.88313810249717</v>
       </c>
       <c r="O19" t="n">
-        <v>69.33609363730821</v>
+        <v>69.33609363730825</v>
       </c>
       <c r="P19" t="n">
-        <v>42.02952498816202</v>
+        <v>42.02952498816207</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36123,19 +36123,19 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L20" t="n">
-        <v>114.1206651911212</v>
+        <v>114.1206651911213</v>
       </c>
       <c r="M20" t="n">
-        <v>114.1206651911212</v>
+        <v>114.1206651911213</v>
       </c>
       <c r="N20" t="n">
-        <v>114.1206651911212</v>
+        <v>114.1206651911213</v>
       </c>
       <c r="O20" t="n">
-        <v>109.5097292238032</v>
+        <v>5.454167697619061</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -36202,22 +36202,22 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>109.5097292238032</v>
+        <v>114.1206651911213</v>
       </c>
       <c r="L21" t="n">
-        <v>114.1206651911212</v>
+        <v>114.1206651911213</v>
       </c>
       <c r="M21" t="n">
-        <v>114.1206651911212</v>
+        <v>114.1206651911213</v>
       </c>
       <c r="N21" t="n">
-        <v>114.1206651911212</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>109.5097292238033</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36281,22 +36281,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>34.55908398123901</v>
+        <v>34.55908398123906</v>
       </c>
       <c r="L22" t="n">
-        <v>84.418601067438</v>
+        <v>84.41860106743805</v>
       </c>
       <c r="M22" t="n">
-        <v>96.41245276896245</v>
+        <v>96.4124527689625</v>
       </c>
       <c r="N22" t="n">
         <v>100.9607481863505</v>
       </c>
       <c r="O22" t="n">
-        <v>81.41370372116154</v>
+        <v>81.41370372116158</v>
       </c>
       <c r="P22" t="n">
-        <v>54.10713507201535</v>
+        <v>54.1071350720154</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36366,7 +36366,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M23" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N23" t="n">
         <v>207.9338608153932</v>
@@ -36442,16 +36442,16 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O24" t="n">
-        <v>226.4350751681936</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="P24" t="n">
         <v>184.4883612256069</v>
@@ -36679,19 +36679,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>232.285965523585</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="M27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
-        <v>43.28534947792182</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
         <v>70.09551364982758</v>
@@ -36922,10 +36922,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
+        <v>240.0046611659691</v>
+      </c>
+      <c r="O30" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="O30" t="n">
-        <v>240.0046611659691</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37083,7 +37083,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O32" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P32" t="n">
         <v>90.5657124162131</v>
@@ -37153,19 +37153,19 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>232.285965523585</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="M33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
-        <v>240.0046611659691</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37390,10 +37390,10 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N36" t="n">
         <v>241.0142888776591</v>
@@ -37402,7 +37402,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P36" t="n">
-        <v>169.9091475161414</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
         <v>70.09551364982758</v>
@@ -37633,16 +37633,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="O39" t="n">
-        <v>43.28534947792182</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37703,22 +37703,22 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>45.32028528246707</v>
+        <v>45.32028528246711</v>
       </c>
       <c r="L40" t="n">
-        <v>95.17980236866606</v>
+        <v>95.1798023686661</v>
       </c>
       <c r="M40" t="n">
-        <v>107.1736540701905</v>
+        <v>107.1736540701906</v>
       </c>
       <c r="N40" t="n">
-        <v>111.7219494875785</v>
+        <v>111.7219494875786</v>
       </c>
       <c r="O40" t="n">
-        <v>92.17490502238959</v>
+        <v>92.17490502238964</v>
       </c>
       <c r="P40" t="n">
-        <v>64.86833637324341</v>
+        <v>64.86833637324345</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37782,13 +37782,13 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L41" t="n">
-        <v>145.1949001911523</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>48.7627271611553</v>
+        <v>89.90206582612328</v>
       </c>
       <c r="N41" t="n">
         <v>145.1949001911523</v>
@@ -37864,22 +37864,22 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>69.23292592754079</v>
+      </c>
+      <c r="N42" t="n">
         <v>145.1949001911523</v>
-      </c>
-      <c r="M42" t="n">
-        <v>145.1949001911523</v>
-      </c>
-      <c r="N42" t="n">
-        <v>139.3284395773684</v>
       </c>
       <c r="O42" t="n">
         <v>145.1949001911523</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>145.1949001911523</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37940,22 +37940,22 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>35.32958606792226</v>
+        <v>35.32958606792231</v>
       </c>
       <c r="L43" t="n">
-        <v>85.18910315412126</v>
+        <v>85.1891031541213</v>
       </c>
       <c r="M43" t="n">
-        <v>97.1829548556457</v>
+        <v>97.18295485564575</v>
       </c>
       <c r="N43" t="n">
-        <v>101.7312502730337</v>
+        <v>101.7312502730338</v>
       </c>
       <c r="O43" t="n">
-        <v>82.18420580784479</v>
+        <v>82.18420580784483</v>
       </c>
       <c r="P43" t="n">
-        <v>54.8776371586986</v>
+        <v>54.87763715869865</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38022,19 +38022,19 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>126.8936236865378</v>
       </c>
       <c r="M44" t="n">
-        <v>54.03895833223258</v>
+        <v>126.8936236865378</v>
       </c>
       <c r="N44" t="n">
-        <v>126.8936236865379</v>
+        <v>126.8936236865378</v>
       </c>
       <c r="O44" t="n">
-        <v>126.8936236865379</v>
+        <v>17.71104706190766</v>
       </c>
       <c r="P44" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38098,25 +38098,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>126.8936236865379</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>126.8936236865379</v>
+        <v>51.67109493826435</v>
       </c>
       <c r="N45" t="n">
-        <v>122.0364342364103</v>
+        <v>126.8936236865378</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>126.8936236865378</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>126.8936236865378</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38177,22 +38177,22 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>35.32958606792226</v>
+        <v>35.32958606792231</v>
       </c>
       <c r="L46" t="n">
-        <v>85.18910315412126</v>
+        <v>85.1891031541213</v>
       </c>
       <c r="M46" t="n">
-        <v>97.1829548556457</v>
+        <v>97.18295485564575</v>
       </c>
       <c r="N46" t="n">
-        <v>101.7312502730337</v>
+        <v>101.7312502730338</v>
       </c>
       <c r="O46" t="n">
-        <v>82.18420580784479</v>
+        <v>82.18420580784483</v>
       </c>
       <c r="P46" t="n">
-        <v>54.8776371586986</v>
+        <v>54.87763715869865</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
